--- a/results/12-2020/fim_interactive.xlsx
+++ b/results/12-2020/fim_interactive.xlsx
@@ -3161,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>3.491222037219346</v>
+        <v>3.687041116015044</v>
       </c>
       <c r="F85">
-        <v>4.586918844478588</v>
+        <v>4.635873614177513</v>
       </c>
       <c r="G85">
         <v>-0.4916588542049684</v>
@@ -3173,7 +3173,7 @@
         <v>-0.7496300744729976</v>
       </c>
       <c r="I85">
-        <v>4.732510965897312</v>
+        <v>4.92833004469301</v>
       </c>
     </row>
     <row r="86">
@@ -3191,10 +3191,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>-2.986350456109255</v>
+        <v>-3.307791747199436</v>
       </c>
       <c r="F86">
-        <v>3.719929206883565</v>
+        <v>3.688523653809944</v>
       </c>
       <c r="G86">
         <v>0.2003096529395086</v>
@@ -3203,7 +3203,7 @@
         <v>-0.3671416208689566</v>
       </c>
       <c r="I86">
-        <v>-2.819518488179807</v>
+        <v>-3.140959779269989</v>
       </c>
     </row>
     <row r="87">
@@ -3221,10 +3221,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>-1.433745965553207</v>
+        <v>-2.441210859714101</v>
       </c>
       <c r="F87">
-        <v>3.340225800080626</v>
+        <v>3.056954023466782</v>
       </c>
       <c r="G87">
         <v>-0.4326965979299264</v>
@@ -3233,7 +3233,7 @@
         <v>0.1642490337702971</v>
       </c>
       <c r="I87">
-        <v>-1.165298401393578</v>
+        <v>-2.172763295554471</v>
       </c>
     </row>
     <row r="88">
@@ -3251,10 +3251,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>-2.507038630877107</v>
+        <v>-3.259373598073963</v>
       </c>
       <c r="F88">
-        <v>-0.8589782538300548</v>
+        <v>-1.330333772243113</v>
       </c>
       <c r="G88">
         <v>-0.6710165752478724</v>
@@ -3263,7 +3263,7 @@
         <v>0.2541332789429268</v>
       </c>
       <c r="I88">
-        <v>-2.090155334572161</v>
+        <v>-2.842490301769017</v>
       </c>
     </row>
     <row r="89">
@@ -3281,10 +3281,10 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>-2.629128237947298</v>
+        <v>-3.173445527074861</v>
       </c>
       <c r="F89">
-        <v>-2.389065822621716</v>
+        <v>-3.04545543301559</v>
       </c>
       <c r="G89">
         <v>-0.117563065932944</v>
@@ -3293,7 +3293,7 @@
         <v>-0.1580530711298793</v>
       </c>
       <c r="I89">
-        <v>-2.353512100884474</v>
+        <v>-2.897829390012038</v>
       </c>
     </row>
     <row r="90">
@@ -3311,10 +3311,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>-1.956733699494239</v>
+        <v>-2.475255620977485</v>
       </c>
       <c r="F90">
-        <v>-2.131661633467961</v>
+        <v>-2.837321401460102</v>
       </c>
       <c r="G90">
         <v>-0.1571543546386199</v>
@@ -3323,7 +3323,7 @@
         <v>0.03569302105791163</v>
       </c>
       <c r="I90">
-        <v>-1.835272365913531</v>
+        <v>-2.353794287396777</v>
       </c>
     </row>
     <row r="91">
@@ -3341,10 +3341,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>-0.9045442421047006</v>
+        <v>-1.240773270103016</v>
       </c>
       <c r="F91">
-        <v>-1.999361202605835</v>
+        <v>-2.537212004057331</v>
       </c>
       <c r="G91">
         <v>-0.148166807756484</v>
@@ -3353,7 +3353,7 @@
         <v>0.09133680375806208</v>
       </c>
       <c r="I91">
-        <v>-0.8477142381062788</v>
+        <v>-1.183943266104594</v>
       </c>
     </row>
     <row r="92">
@@ -3371,10 +3371,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>-1.885922592945795</v>
+        <v>-1.939147293292349</v>
       </c>
       <c r="F92">
-        <v>-1.844082193123007</v>
+        <v>-2.207155427861927</v>
       </c>
       <c r="G92">
         <v>-0.04498415407605297</v>
@@ -3383,7 +3383,7 @@
         <v>-0.01235806542162986</v>
       </c>
       <c r="I92">
-        <v>-1.828580373448112</v>
+        <v>-1.881805073794666</v>
       </c>
     </row>
     <row r="93">
@@ -3401,10 +3401,10 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>-0.583884612145347</v>
+        <v>-0.5059642727159844</v>
       </c>
       <c r="F93">
-        <v>-1.332771286672519</v>
+        <v>-1.540285114272208</v>
       </c>
       <c r="G93">
         <v>-0.0217634055200784</v>
@@ -3413,7 +3413,7 @@
         <v>-0.07352568816414681</v>
       </c>
       <c r="I93">
-        <v>-0.4885955184611218</v>
+        <v>-0.4106751790317592</v>
       </c>
     </row>
   </sheetData>

--- a/results/12-2020/fim_interactive.xlsx
+++ b/results/12-2020/fim_interactive.xlsx
@@ -3221,19 +3221,19 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>-2.441210859714101</v>
+        <v>3.274442939439371</v>
       </c>
       <c r="F87">
-        <v>3.056954023466782</v>
+        <v>4.485867473255149</v>
       </c>
       <c r="G87">
-        <v>-0.4326965979299264</v>
+        <v>3.100508840408109</v>
       </c>
       <c r="H87">
-        <v>0.1642490337702971</v>
+        <v>-3.368956404567739</v>
       </c>
       <c r="I87">
-        <v>-2.172763295554471</v>
+        <v>3.542890503599001</v>
       </c>
     </row>
     <row r="88">
@@ -3251,19 +3251,19 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>-3.259373598073963</v>
+        <v>-2.987287850227718</v>
       </c>
       <c r="F88">
-        <v>-1.330333772243113</v>
+        <v>0.1666011145068151</v>
       </c>
       <c r="G88">
-        <v>-0.6710165752478724</v>
+        <v>-0.7037459759121391</v>
       </c>
       <c r="H88">
-        <v>0.2541332789429268</v>
+        <v>0.2868626796071934</v>
       </c>
       <c r="I88">
-        <v>-2.842490301769017</v>
+        <v>-2.570404553922772</v>
       </c>
     </row>
     <row r="89">
@@ -3281,19 +3281,19 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>-3.173445527074861</v>
+        <v>-2.924166013534065</v>
       </c>
       <c r="F89">
-        <v>-3.04545543301559</v>
+        <v>-1.486200667880462</v>
       </c>
       <c r="G89">
-        <v>-0.117563065932944</v>
+        <v>-0.1499749553841785</v>
       </c>
       <c r="H89">
-        <v>-0.1580530711298793</v>
+        <v>-0.1256411816786448</v>
       </c>
       <c r="I89">
-        <v>-2.897829390012038</v>
+        <v>-2.648549876471242</v>
       </c>
     </row>
     <row r="90">
@@ -3311,19 +3311,19 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>-2.475255620977485</v>
+        <v>-2.597578075119432</v>
       </c>
       <c r="F90">
-        <v>-2.837321401460102</v>
+        <v>-1.308647249860461</v>
       </c>
       <c r="G90">
-        <v>-0.1571543546386199</v>
+        <v>-3.554553272110574</v>
       </c>
       <c r="H90">
-        <v>0.03569302105791163</v>
+        <v>3.433091938529865</v>
       </c>
       <c r="I90">
-        <v>-2.353794287396777</v>
+        <v>-2.476116741538723</v>
       </c>
     </row>
     <row r="91">
@@ -3341,10 +3341,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>-1.240773270103016</v>
+        <v>-6.368117040881671</v>
       </c>
       <c r="F91">
-        <v>-2.537212004057331</v>
+        <v>-3.719287244940721</v>
       </c>
       <c r="G91">
         <v>-0.148166807756484</v>
@@ -3353,7 +3353,7 @@
         <v>0.09133680375806208</v>
       </c>
       <c r="I91">
-        <v>-1.183943266104594</v>
+        <v>-6.311287036883249</v>
       </c>
     </row>
     <row r="92">
@@ -3371,10 +3371,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>-1.939147293292349</v>
+        <v>-1.976178782683645</v>
       </c>
       <c r="F92">
-        <v>-2.207155427861927</v>
+        <v>-3.466509978054704</v>
       </c>
       <c r="G92">
         <v>-0.04498415407605297</v>
@@ -3383,7 +3383,7 @@
         <v>-0.01235806542162986</v>
       </c>
       <c r="I92">
-        <v>-1.881805073794666</v>
+        <v>-1.918836563185962</v>
       </c>
     </row>
     <row r="93">
@@ -3401,10 +3401,10 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>-0.5059642727159844</v>
+        <v>-0.5269966399726116</v>
       </c>
       <c r="F93">
-        <v>-1.540285114272208</v>
+        <v>-2.867217634664341</v>
       </c>
       <c r="G93">
         <v>-0.0217634055200784</v>
@@ -3413,7 +3413,7 @@
         <v>-0.07352568816414681</v>
       </c>
       <c r="I93">
-        <v>-0.4106751790317592</v>
+        <v>-0.4317075462883864</v>
       </c>
     </row>
   </sheetData>

--- a/results/12-2020/fim_interactive.xlsx
+++ b/results/12-2020/fim_interactive.xlsx
@@ -3221,16 +3221,16 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>3.274442939439371</v>
+        <v>6.807648377777404</v>
       </c>
       <c r="F87">
-        <v>4.485867473255149</v>
+        <v>5.369168832839658</v>
       </c>
       <c r="G87">
         <v>3.100508840408109</v>
       </c>
       <c r="H87">
-        <v>-3.368956404567739</v>
+        <v>0.1642490337702944</v>
       </c>
       <c r="I87">
         <v>3.542890503599001</v>
@@ -3251,16 +3251,16 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>-2.987287850227718</v>
+        <v>-3.020017250891981</v>
       </c>
       <c r="F88">
-        <v>0.1666011145068151</v>
+        <v>1.041720123925258</v>
       </c>
       <c r="G88">
         <v>-0.7037459759121391</v>
       </c>
       <c r="H88">
-        <v>0.2868626796071934</v>
+        <v>0.2541332789429298</v>
       </c>
       <c r="I88">
         <v>-2.570404553922772</v>
@@ -3281,16 +3281,16 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>-2.924166013534065</v>
+        <v>-2.956577902985297</v>
       </c>
       <c r="F89">
-        <v>-1.486200667880462</v>
+        <v>-0.6191846308248271</v>
       </c>
       <c r="G89">
         <v>-0.1499749553841785</v>
       </c>
       <c r="H89">
-        <v>-0.1256411816786448</v>
+        <v>-0.1580530711298772</v>
       </c>
       <c r="I89">
         <v>-2.648549876471242</v>
@@ -3311,16 +3311,16 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>-2.597578075119432</v>
+        <v>-5.994976992591383</v>
       </c>
       <c r="F90">
-        <v>-1.308647249860461</v>
+        <v>-1.290980942172814</v>
       </c>
       <c r="G90">
         <v>-3.554553272110574</v>
       </c>
       <c r="H90">
-        <v>3.433091938529865</v>
+        <v>0.03569302105791428</v>
       </c>
       <c r="I90">
         <v>-2.476116741538723</v>
@@ -3344,7 +3344,7 @@
         <v>-6.368117040881671</v>
       </c>
       <c r="F91">
-        <v>-3.719287244940721</v>
+        <v>-4.584922296837583</v>
       </c>
       <c r="G91">
         <v>-0.148166807756484</v>
@@ -3374,7 +3374,7 @@
         <v>-1.976178782683645</v>
       </c>
       <c r="F92">
-        <v>-3.466509978054704</v>
+        <v>-4.323962679785499</v>
       </c>
       <c r="G92">
         <v>-0.04498415407605297</v>
@@ -3404,7 +3404,7 @@
         <v>-0.5269966399726116</v>
       </c>
       <c r="F93">
-        <v>-2.867217634664341</v>
+        <v>-3.716567364032327</v>
       </c>
       <c r="G93">
         <v>-0.0217634055200784</v>

--- a/results/12-2020/fim_interactive.xlsx
+++ b/results/12-2020/fim_interactive.xlsx
@@ -464,7 +464,7 @@
         <v>-1.31159166141865</v>
       </c>
       <c r="H3">
-        <v>0.03883989562439163</v>
+        <v>0.03883989562439164</v>
       </c>
       <c r="I3">
         <v>-0.6148047939177821</v>
@@ -530,7 +530,7 @@
         <v>-0.7542304097927617</v>
       </c>
       <c r="H5">
-        <v>-0.2606953291135496</v>
+        <v>-0.2606953291135497</v>
       </c>
       <c r="I5">
         <v>-0.09262969992397241</v>
@@ -797,7 +797,7 @@
         <v>-0.02386484856737564</v>
       </c>
       <c r="I13">
-        <v>1.552930265269574</v>
+        <v>1.552930265269575</v>
       </c>
     </row>
     <row r="14">
@@ -827,7 +827,7 @@
         <v>0.3456853209154376</v>
       </c>
       <c r="H14">
-        <v>-0.2574736546801012</v>
+        <v>-0.2574736546801013</v>
       </c>
       <c r="I14">
         <v>1.099500608368954</v>
@@ -863,7 +863,7 @@
         <v>-0.4619483423637046</v>
       </c>
       <c r="I15">
-        <v>1.13459701519691</v>
+        <v>1.134597015196911</v>
       </c>
     </row>
     <row r="16">
@@ -989,7 +989,7 @@
         <v>0.6747978935539617</v>
       </c>
       <c r="G19">
-        <v>-0.4041200882597878</v>
+        <v>-0.4041200882597879</v>
       </c>
       <c r="H19">
         <v>0.2335694975294421</v>
@@ -1382,7 +1382,7 @@
         <v>-0.5940432398129916</v>
       </c>
       <c r="F31">
-        <v>-0.6408611199915289</v>
+        <v>-0.640861119991529</v>
       </c>
       <c r="G31">
         <v>-0.4482138378535143</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>2.73952350682038</v>
+        <v>2.739523506820381</v>
       </c>
       <c r="F41">
         <v>2.692089184251138</v>
@@ -1754,7 +1754,7 @@
         <v>-0.7144042446540373</v>
       </c>
       <c r="I42">
-        <v>2.341079119665709</v>
+        <v>2.34107911966571</v>
       </c>
     </row>
     <row r="43">
@@ -1853,7 +1853,7 @@
         <v>-0.9266923783968273</v>
       </c>
       <c r="I45">
-        <v>1.03353482318651</v>
+        <v>1.033534823186511</v>
       </c>
     </row>
     <row r="46">
@@ -1910,7 +1910,7 @@
         <v>-1.43555459036326</v>
       </c>
       <c r="F47">
-        <v>0.04523267965381061</v>
+        <v>0.04523267965381062</v>
       </c>
       <c r="G47">
         <v>-0.7791842320308732</v>
@@ -2414,7 +2414,7 @@
         <v>0.4977560396995079</v>
       </c>
       <c r="I62">
-        <v>-0.1935898474220352</v>
+        <v>-0.1935898474220353</v>
       </c>
     </row>
     <row r="63">
@@ -2672,7 +2672,7 @@
         <v>-0.1121258028506511</v>
       </c>
       <c r="G70">
-        <v>-0.1469082386613492</v>
+        <v>-0.1469082386613493</v>
       </c>
       <c r="H70">
         <v>0.05240041216595906</v>
@@ -2744,7 +2744,7 @@
         <v>-0.1229138139409729</v>
       </c>
       <c r="I72">
-        <v>0.08822827891038452</v>
+        <v>0.08822827891038453</v>
       </c>
     </row>
     <row r="73">
@@ -2798,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>0.03946169552298145</v>
+        <v>0.03946169552298146</v>
       </c>
       <c r="F74">
         <v>-0.0811218478370582</v>
@@ -2900,7 +2900,7 @@
         <v>0.1652983376755857</v>
       </c>
       <c r="F77">
-        <v>0.1626283289283671</v>
+        <v>0.1626283289283672</v>
       </c>
       <c r="G77">
         <v>0.1832164717785813</v>
@@ -3065,7 +3065,7 @@
         <v>0.4816080942708365</v>
       </c>
       <c r="F82">
-        <v>0.426774864814927</v>
+        <v>0.4267748648149271</v>
       </c>
       <c r="G82">
         <v>0.3437108920115783</v>
@@ -3191,7 +3191,7 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>-3.307791747199436</v>
+        <v>-3.307791747199437</v>
       </c>
       <c r="F86">
         <v>3.688523653809944</v>
@@ -3221,19 +3221,19 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>6.807648377777404</v>
+        <v>4.378374994833019</v>
       </c>
       <c r="F87">
-        <v>5.369168832839658</v>
+        <v>4.761850487103561</v>
       </c>
       <c r="G87">
-        <v>3.100508840408109</v>
+        <v>0.974451668876546</v>
       </c>
       <c r="H87">
-        <v>0.1642490337702944</v>
+        <v>0.1642490337702973</v>
       </c>
       <c r="I87">
-        <v>3.542890503599001</v>
+        <v>3.239674292186175</v>
       </c>
     </row>
     <row r="88">
@@ -3251,19 +3251,19 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>-3.020017250891981</v>
+        <v>-2.797863445655844</v>
       </c>
       <c r="F88">
-        <v>1.041720123925258</v>
+        <v>0.4899402294981954</v>
       </c>
       <c r="G88">
-        <v>-0.7037459759121391</v>
+        <v>-0.6840515148295346</v>
       </c>
       <c r="H88">
         <v>0.2541332789429298</v>
       </c>
       <c r="I88">
-        <v>-2.570404553922772</v>
+        <v>-2.36794520976924</v>
       </c>
     </row>
     <row r="89">
@@ -3281,19 +3281,19 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>-2.956577902985297</v>
+        <v>-2.912034116707706</v>
       </c>
       <c r="F89">
-        <v>-0.6191846308248271</v>
+        <v>-1.159828578682492</v>
       </c>
       <c r="G89">
-        <v>-0.1499749553841785</v>
+        <v>-0.1304715522525736</v>
       </c>
       <c r="H89">
-        <v>-0.1580530711298772</v>
+        <v>-0.1580530711298803</v>
       </c>
       <c r="I89">
-        <v>-2.648549876471242</v>
+        <v>-2.623509493325252</v>
       </c>
     </row>
     <row r="90">
@@ -3311,19 +3311,19 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>-5.994976992591383</v>
+        <v>-2.820587636041925</v>
       </c>
       <c r="F90">
-        <v>-1.290980942172814</v>
+        <v>-1.038027550893114</v>
       </c>
       <c r="G90">
-        <v>-3.554553272110574</v>
+        <v>-0.1701103953747071</v>
       </c>
       <c r="H90">
-        <v>0.03569302105791428</v>
+        <v>0.03569302105791516</v>
       </c>
       <c r="I90">
-        <v>-2.476116741538723</v>
+        <v>-2.686170261725133</v>
       </c>
     </row>
     <row r="91">
@@ -3341,19 +3341,19 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>-6.368117040881671</v>
+        <v>-6.166515983169825</v>
       </c>
       <c r="F91">
-        <v>-4.584922296837583</v>
+        <v>-3.674250295393825</v>
       </c>
       <c r="G91">
-        <v>-0.148166807756484</v>
+        <v>-0.162513297365059</v>
       </c>
       <c r="H91">
-        <v>0.09133680375806208</v>
+        <v>0.09133680375806255</v>
       </c>
       <c r="I91">
-        <v>-6.311287036883249</v>
+        <v>-6.095339489562829</v>
       </c>
     </row>
     <row r="92">
@@ -3371,19 +3371,19 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>-1.976178782683645</v>
+        <v>-2.352309585936044</v>
       </c>
       <c r="F92">
-        <v>-4.323962679785499</v>
+        <v>-3.562861830463875</v>
       </c>
       <c r="G92">
-        <v>-0.04498415407605297</v>
+        <v>-0.05990943407882803</v>
       </c>
       <c r="H92">
-        <v>-0.01235806542162986</v>
+        <v>-0.01235806542162494</v>
       </c>
       <c r="I92">
-        <v>-1.918836563185962</v>
+        <v>-2.280042086435591</v>
       </c>
     </row>
     <row r="93">
@@ -3401,19 +3401,19 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>-0.5269966399726116</v>
+        <v>-0.6678887022411846</v>
       </c>
       <c r="F93">
-        <v>-3.716567364032327</v>
+        <v>-3.001825476847245</v>
       </c>
       <c r="G93">
-        <v>-0.0217634055200784</v>
+        <v>-0.03688906968240128</v>
       </c>
       <c r="H93">
-        <v>-0.07352568816414681</v>
+        <v>-0.07352568816414827</v>
       </c>
       <c r="I93">
-        <v>-0.4317075462883864</v>
+        <v>-0.5574739443946351</v>
       </c>
     </row>
   </sheetData>

--- a/results/12-2020/fim_interactive.xlsx
+++ b/results/12-2020/fim_interactive.xlsx
@@ -3221,19 +3221,19 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>6.807648377777404</v>
+        <v>4.378374994833019</v>
       </c>
       <c r="F87">
-        <v>5.369168832839658</v>
+        <v>4.761850487103561</v>
       </c>
       <c r="G87">
-        <v>3.100508840408109</v>
+        <v>0.974451668876546</v>
       </c>
       <c r="H87">
-        <v>0.1642490337702944</v>
+        <v>0.1642490337702973</v>
       </c>
       <c r="I87">
-        <v>3.542890503599001</v>
+        <v>3.239674292186175</v>
       </c>
     </row>
     <row r="88">
@@ -3251,19 +3251,19 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>-3.020017250891981</v>
+        <v>-2.797863445655844</v>
       </c>
       <c r="F88">
-        <v>1.041720123925258</v>
+        <v>0.4899402294981954</v>
       </c>
       <c r="G88">
-        <v>-0.7037459759121391</v>
+        <v>-0.6840515148295346</v>
       </c>
       <c r="H88">
         <v>0.2541332789429298</v>
       </c>
       <c r="I88">
-        <v>-2.570404553922772</v>
+        <v>-2.36794520976924</v>
       </c>
     </row>
     <row r="89">
@@ -3281,19 +3281,19 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>-2.956577902985297</v>
+        <v>-2.912034116707706</v>
       </c>
       <c r="F89">
-        <v>-0.6191846308248271</v>
+        <v>-1.159828578682492</v>
       </c>
       <c r="G89">
-        <v>-0.1499749553841785</v>
+        <v>-0.1304715522525736</v>
       </c>
       <c r="H89">
-        <v>-0.1580530711298772</v>
+        <v>-0.1580530711298803</v>
       </c>
       <c r="I89">
-        <v>-2.648549876471242</v>
+        <v>-2.623509493325252</v>
       </c>
     </row>
     <row r="90">
@@ -3311,19 +3311,19 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>-5.994976992591383</v>
+        <v>-2.820587636041925</v>
       </c>
       <c r="F90">
-        <v>-1.290980942172814</v>
+        <v>-1.038027550893114</v>
       </c>
       <c r="G90">
-        <v>-3.554553272110574</v>
+        <v>-0.1701103953747071</v>
       </c>
       <c r="H90">
-        <v>0.03569302105791428</v>
+        <v>0.03569302105791516</v>
       </c>
       <c r="I90">
-        <v>-2.476116741538723</v>
+        <v>-2.686170261725133</v>
       </c>
     </row>
     <row r="91">
@@ -3341,19 +3341,19 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>-6.368117040881671</v>
+        <v>-6.166515983169825</v>
       </c>
       <c r="F91">
-        <v>-4.584922296837583</v>
+        <v>-3.674250295393825</v>
       </c>
       <c r="G91">
-        <v>-0.148166807756484</v>
+        <v>-0.162513297365059</v>
       </c>
       <c r="H91">
-        <v>0.09133680375806208</v>
+        <v>0.09133680375806255</v>
       </c>
       <c r="I91">
-        <v>-6.311287036883249</v>
+        <v>-6.095339489562829</v>
       </c>
     </row>
     <row r="92">
@@ -3371,19 +3371,19 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>-1.976178782683645</v>
+        <v>-2.352309585936044</v>
       </c>
       <c r="F92">
-        <v>-4.323962679785499</v>
+        <v>-3.562861830463875</v>
       </c>
       <c r="G92">
-        <v>-0.04498415407605297</v>
+        <v>-0.05990943407882802</v>
       </c>
       <c r="H92">
-        <v>-0.01235806542162986</v>
+        <v>-0.01235806542162494</v>
       </c>
       <c r="I92">
-        <v>-1.918836563185962</v>
+        <v>-2.280042086435591</v>
       </c>
     </row>
     <row r="93">
@@ -3401,19 +3401,19 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>-0.5269966399726116</v>
+        <v>-0.6678887022411846</v>
       </c>
       <c r="F93">
-        <v>-3.716567364032327</v>
+        <v>-3.001825476847245</v>
       </c>
       <c r="G93">
-        <v>-0.0217634055200784</v>
+        <v>-0.03688906968240128</v>
       </c>
       <c r="H93">
-        <v>-0.07352568816414681</v>
+        <v>-0.07352568816414827</v>
       </c>
       <c r="I93">
-        <v>-0.4317075462883864</v>
+        <v>-0.557473944394635</v>
       </c>
     </row>
   </sheetData>

--- a/results/12-2020/fim_interactive.xlsx
+++ b/results/12-2020/fim_interactive.xlsx
@@ -464,7 +464,7 @@
         <v>-1.31159166141865</v>
       </c>
       <c r="H3">
-        <v>0.03883989562439164</v>
+        <v>0.03883989562439163</v>
       </c>
       <c r="I3">
         <v>-0.6148047939177821</v>
@@ -530,7 +530,7 @@
         <v>-0.7542304097927617</v>
       </c>
       <c r="H5">
-        <v>-0.2606953291135497</v>
+        <v>-0.2606953291135496</v>
       </c>
       <c r="I5">
         <v>-0.09262969992397241</v>
@@ -797,7 +797,7 @@
         <v>-0.02386484856737564</v>
       </c>
       <c r="I13">
-        <v>1.552930265269575</v>
+        <v>1.552930265269574</v>
       </c>
     </row>
     <row r="14">
@@ -827,7 +827,7 @@
         <v>0.3456853209154376</v>
       </c>
       <c r="H14">
-        <v>-0.2574736546801013</v>
+        <v>-0.2574736546801012</v>
       </c>
       <c r="I14">
         <v>1.099500608368954</v>
@@ -863,7 +863,7 @@
         <v>-0.4619483423637046</v>
       </c>
       <c r="I15">
-        <v>1.134597015196911</v>
+        <v>1.13459701519691</v>
       </c>
     </row>
     <row r="16">
@@ -989,7 +989,7 @@
         <v>0.6747978935539617</v>
       </c>
       <c r="G19">
-        <v>-0.4041200882597879</v>
+        <v>-0.4041200882597878</v>
       </c>
       <c r="H19">
         <v>0.2335694975294421</v>
@@ -1382,7 +1382,7 @@
         <v>-0.5940432398129916</v>
       </c>
       <c r="F31">
-        <v>-0.640861119991529</v>
+        <v>-0.6408611199915289</v>
       </c>
       <c r="G31">
         <v>-0.4482138378535143</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>2.739523506820381</v>
+        <v>2.73952350682038</v>
       </c>
       <c r="F41">
         <v>2.692089184251138</v>
@@ -1754,7 +1754,7 @@
         <v>-0.7144042446540373</v>
       </c>
       <c r="I42">
-        <v>2.34107911966571</v>
+        <v>2.341079119665709</v>
       </c>
     </row>
     <row r="43">
@@ -1853,7 +1853,7 @@
         <v>-0.9266923783968273</v>
       </c>
       <c r="I45">
-        <v>1.033534823186511</v>
+        <v>1.03353482318651</v>
       </c>
     </row>
     <row r="46">
@@ -1910,7 +1910,7 @@
         <v>-1.43555459036326</v>
       </c>
       <c r="F47">
-        <v>0.04523267965381062</v>
+        <v>0.04523267965381061</v>
       </c>
       <c r="G47">
         <v>-0.7791842320308732</v>
@@ -2414,7 +2414,7 @@
         <v>0.4977560396995079</v>
       </c>
       <c r="I62">
-        <v>-0.1935898474220353</v>
+        <v>-0.1935898474220352</v>
       </c>
     </row>
     <row r="63">
@@ -2672,7 +2672,7 @@
         <v>-0.1121258028506511</v>
       </c>
       <c r="G70">
-        <v>-0.1469082386613493</v>
+        <v>-0.1469082386613492</v>
       </c>
       <c r="H70">
         <v>0.05240041216595906</v>
@@ -2744,7 +2744,7 @@
         <v>-0.1229138139409729</v>
       </c>
       <c r="I72">
-        <v>0.08822827891038453</v>
+        <v>0.08822827891038452</v>
       </c>
     </row>
     <row r="73">
@@ -2798,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>0.03946169552298146</v>
+        <v>0.03946169552298145</v>
       </c>
       <c r="F74">
         <v>-0.0811218478370582</v>
@@ -2900,7 +2900,7 @@
         <v>0.1652983376755857</v>
       </c>
       <c r="F77">
-        <v>0.1626283289283672</v>
+        <v>0.1626283289283671</v>
       </c>
       <c r="G77">
         <v>0.1832164717785813</v>
@@ -3065,7 +3065,7 @@
         <v>0.4816080942708365</v>
       </c>
       <c r="F82">
-        <v>0.4267748648149271</v>
+        <v>0.426774864814927</v>
       </c>
       <c r="G82">
         <v>0.3437108920115783</v>
@@ -3161,19 +3161,19 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>3.687041116015044</v>
+        <v>3.595295536207509</v>
       </c>
       <c r="F85">
-        <v>4.635873614177513</v>
+        <v>4.612937219225628</v>
       </c>
       <c r="G85">
-        <v>-0.4916588542049684</v>
+        <v>-0.4951885607204507</v>
       </c>
       <c r="H85">
-        <v>-0.7496300744729976</v>
+        <v>-0.7425016664356643</v>
       </c>
       <c r="I85">
-        <v>4.92833004469301</v>
+        <v>4.832985763363624</v>
       </c>
     </row>
     <row r="86">
@@ -3191,19 +3191,19 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>-3.307791747199437</v>
+        <v>-3.511340103131968</v>
       </c>
       <c r="F86">
-        <v>3.688523653809944</v>
+        <v>3.614700169874927</v>
       </c>
       <c r="G86">
-        <v>0.2003096529395086</v>
+        <v>0.2001873979359312</v>
       </c>
       <c r="H86">
-        <v>-0.3671416208689566</v>
+        <v>-0.3669047031687928</v>
       </c>
       <c r="I86">
-        <v>-3.140959779269989</v>
+        <v>-3.344622797899106</v>
       </c>
     </row>
     <row r="87">
@@ -3221,19 +3221,19 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>4.378374994833019</v>
+        <v>5.273126345935629</v>
       </c>
       <c r="F87">
-        <v>4.761850487103561</v>
+        <v>4.911714840944197</v>
       </c>
       <c r="G87">
-        <v>0.974451668876546</v>
+        <v>1.982554623266236</v>
       </c>
       <c r="H87">
-        <v>0.1642490337702973</v>
+        <v>0.1641541913022385</v>
       </c>
       <c r="I87">
-        <v>3.239674292186175</v>
+        <v>3.126417531367155</v>
       </c>
     </row>
     <row r="88">
@@ -3251,19 +3251,19 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>-2.797863445655844</v>
+        <v>-2.886985022994477</v>
       </c>
       <c r="F88">
-        <v>0.4899402294981954</v>
+        <v>0.6175241890041736</v>
       </c>
       <c r="G88">
-        <v>-0.6840515148295346</v>
+        <v>-0.6924748865772002</v>
       </c>
       <c r="H88">
-        <v>0.2541332789429298</v>
+        <v>0.2539874873401625</v>
       </c>
       <c r="I88">
-        <v>-2.36794520976924</v>
+        <v>-2.448497623757439</v>
       </c>
     </row>
     <row r="89">
@@ -3281,19 +3281,19 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>-2.912034116707706</v>
+        <v>-3.734132481642336</v>
       </c>
       <c r="F89">
-        <v>-1.159828578682492</v>
+        <v>-1.214832815458287</v>
       </c>
       <c r="G89">
-        <v>-0.1304715522525736</v>
+        <v>-0.8701413123275245</v>
       </c>
       <c r="H89">
-        <v>-0.1580530711298803</v>
+        <v>-0.1579464394047646</v>
       </c>
       <c r="I89">
-        <v>-2.623509493325252</v>
+        <v>-2.706044729910047</v>
       </c>
     </row>
     <row r="90">
@@ -3311,19 +3311,19 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>-2.820587636041925</v>
+        <v>-2.87710701099268</v>
       </c>
       <c r="F90">
-        <v>-1.038027550893114</v>
+        <v>-1.056274542423465</v>
       </c>
       <c r="G90">
-        <v>-0.1701103953747071</v>
+        <v>-0.171891681966369</v>
       </c>
       <c r="H90">
-        <v>0.03569302105791516</v>
+        <v>0.03567463761995401</v>
       </c>
       <c r="I90">
-        <v>-2.686170261725133</v>
+        <v>-2.740889966646265</v>
       </c>
     </row>
     <row r="91">
@@ -3341,19 +3341,19 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>-6.166515983169825</v>
+        <v>-6.722498130969074</v>
       </c>
       <c r="F91">
-        <v>-3.674250295393825</v>
+        <v>-4.055180661649641</v>
       </c>
       <c r="G91">
-        <v>-0.162513297365059</v>
+        <v>-0.698126548703344</v>
       </c>
       <c r="H91">
-        <v>0.09133680375806255</v>
+        <v>0.09128131941663525</v>
       </c>
       <c r="I91">
-        <v>-6.095339489562829</v>
+        <v>-6.115652901682365</v>
       </c>
     </row>
     <row r="92">
@@ -3371,19 +3371,19 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>-2.352309585936044</v>
+        <v>-2.364767847978798</v>
       </c>
       <c r="F92">
-        <v>-3.562861830463875</v>
+        <v>-3.924626367895721</v>
       </c>
       <c r="G92">
-        <v>-0.05990943407882803</v>
+        <v>-0.05654885996651509</v>
       </c>
       <c r="H92">
-        <v>-0.01235806542162494</v>
+        <v>-0.01234886731195053</v>
       </c>
       <c r="I92">
-        <v>-2.280042086435591</v>
+        <v>-2.295870120700333</v>
       </c>
     </row>
     <row r="93">
@@ -3401,19 +3401,19 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>-0.6678887022411846</v>
+        <v>-0.6803699655934828</v>
       </c>
       <c r="F93">
-        <v>-3.001825476847245</v>
+        <v>-3.161185738883507</v>
       </c>
       <c r="G93">
-        <v>-0.03688906968240128</v>
+        <v>-0.03349544600468914</v>
       </c>
       <c r="H93">
-        <v>-0.07352568816414827</v>
+        <v>-0.07347584724045174</v>
       </c>
       <c r="I93">
-        <v>-0.5574739443946351</v>
+        <v>-0.573398672348342</v>
       </c>
     </row>
   </sheetData>

--- a/results/12-2020/fim_interactive.xlsx
+++ b/results/12-2020/fim_interactive.xlsx
@@ -3161,19 +3161,19 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>3.595295536207509</v>
+        <v>3.607238917645105</v>
       </c>
       <c r="F85">
-        <v>4.612937219225628</v>
+        <v>4.615923064585028</v>
       </c>
       <c r="G85">
-        <v>-0.4951885607204507</v>
+        <v>-0.4945785725116473</v>
       </c>
       <c r="H85">
-        <v>-0.7425016664356643</v>
+        <v>-0.7431116546444677</v>
       </c>
       <c r="I85">
-        <v>4.832985763363624</v>
+        <v>4.84492914480122</v>
       </c>
     </row>
     <row r="86">
@@ -3191,19 +3191,19 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>-3.511340103131968</v>
+        <v>-3.558564880931762</v>
       </c>
       <c r="F86">
-        <v>3.614700169874927</v>
+        <v>3.605879820784378</v>
       </c>
       <c r="G86">
-        <v>0.2001873979359312</v>
+        <v>0.1996211702668564</v>
       </c>
       <c r="H86">
-        <v>-0.3669047031687928</v>
+        <v>-0.3663384754997181</v>
       </c>
       <c r="I86">
-        <v>-3.344622797899106</v>
+        <v>-3.3918475756989</v>
       </c>
     </row>
     <row r="87">
@@ -3221,10 +3221,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>5.273126345935629</v>
+        <v>3.14554523514874</v>
       </c>
       <c r="F87">
-        <v>4.911714840944197</v>
+        <v>4.370999214156925</v>
       </c>
       <c r="G87">
         <v>1.982554623266236</v>
@@ -3233,7 +3233,7 @@
         <v>0.1641541913022385</v>
       </c>
       <c r="I87">
-        <v>3.126417531367155</v>
+        <v>0.9988364205802654</v>
       </c>
     </row>
     <row r="88">
@@ -3251,10 +3251,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>-2.886985022994477</v>
+        <v>-3.136444275811584</v>
       </c>
       <c r="F88">
-        <v>0.6175241890041736</v>
+        <v>0.01444374901262524</v>
       </c>
       <c r="G88">
         <v>-0.6924748865772002</v>
@@ -3263,7 +3263,7 @@
         <v>0.2539874873401625</v>
       </c>
       <c r="I88">
-        <v>-2.448497623757439</v>
+        <v>-2.697956876574546</v>
       </c>
     </row>
     <row r="89">
@@ -3281,10 +3281,10 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>-3.734132481642336</v>
+        <v>-5.945901309796365</v>
       </c>
       <c r="F89">
-        <v>-1.214832815458287</v>
+        <v>-2.373841307847742</v>
       </c>
       <c r="G89">
         <v>-0.8701413123275245</v>
@@ -3293,7 +3293,7 @@
         <v>-0.1579464394047646</v>
       </c>
       <c r="I89">
-        <v>-2.706044729910047</v>
+        <v>-4.917813558064076</v>
       </c>
     </row>
     <row r="90">
@@ -3311,10 +3311,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>-2.87710701099268</v>
+        <v>-3.04955877129358</v>
       </c>
       <c r="F90">
-        <v>-1.056274542423465</v>
+        <v>-2.246589780438196</v>
       </c>
       <c r="G90">
         <v>-0.171891681966369</v>
@@ -3323,7 +3323,7 @@
         <v>0.03567463761995401</v>
       </c>
       <c r="I90">
-        <v>-2.740889966646265</v>
+        <v>-2.913341726947165</v>
       </c>
     </row>
     <row r="91">
@@ -3341,10 +3341,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>-6.722498130969074</v>
+        <v>-2.797046325324548</v>
       </c>
       <c r="F91">
-        <v>-4.055180661649641</v>
+        <v>-3.732237670556518</v>
       </c>
       <c r="G91">
         <v>-0.698126548703344</v>
@@ -3353,7 +3353,7 @@
         <v>0.09128131941663525</v>
       </c>
       <c r="I91">
-        <v>-6.115652901682365</v>
+        <v>-2.190201096037839</v>
       </c>
     </row>
     <row r="92">
@@ -3371,10 +3371,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>-2.364767847978798</v>
+        <v>-2.488045852844002</v>
       </c>
       <c r="F92">
-        <v>-3.924626367895721</v>
+        <v>-3.570138064814623</v>
       </c>
       <c r="G92">
         <v>-0.05654885996651509</v>
@@ -3383,7 +3383,7 @@
         <v>-0.01234886731195053</v>
       </c>
       <c r="I92">
-        <v>-2.295870120700333</v>
+        <v>-2.419148125565536</v>
       </c>
     </row>
     <row r="93">
@@ -3401,10 +3401,10 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>-0.6803699655934828</v>
+        <v>-1.086662637358434</v>
       </c>
       <c r="F93">
-        <v>-3.161185738883507</v>
+        <v>-2.35532839670514</v>
       </c>
       <c r="G93">
         <v>-0.03349544600468914</v>
@@ -3413,7 +3413,7 @@
         <v>-0.07347584724045174</v>
       </c>
       <c r="I93">
-        <v>-0.573398672348342</v>
+        <v>-0.9796913441132926</v>
       </c>
     </row>
   </sheetData>

--- a/results/12-2020/fim_interactive.xlsx
+++ b/results/12-2020/fim_interactive.xlsx
@@ -3191,10 +3191,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>-3.558564880931762</v>
+        <v>-3.101195725775879</v>
       </c>
       <c r="F86">
-        <v>3.605879820784378</v>
+        <v>3.720222109573349</v>
       </c>
       <c r="G86">
         <v>0.1996211702668564</v>
@@ -3203,7 +3203,7 @@
         <v>-0.3663384754997181</v>
       </c>
       <c r="I86">
-        <v>-3.3918475756989</v>
+        <v>-2.934478420543018</v>
       </c>
     </row>
     <row r="87">
@@ -3221,10 +3221,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>3.14554523514874</v>
+        <v>3.932030374331585</v>
       </c>
       <c r="F87">
-        <v>4.370999214156925</v>
+        <v>4.681962787741607</v>
       </c>
       <c r="G87">
         <v>1.982554623266236</v>
@@ -3233,7 +3233,7 @@
         <v>0.1641541913022385</v>
       </c>
       <c r="I87">
-        <v>0.9988364205802654</v>
+        <v>1.785321559763111</v>
       </c>
     </row>
     <row r="88">
@@ -3251,10 +3251,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>-3.136444275811584</v>
+        <v>-2.069715247260751</v>
       </c>
       <c r="F88">
-        <v>0.01444374901262524</v>
+        <v>0.5920895797350152</v>
       </c>
       <c r="G88">
         <v>-0.6924748865772002</v>
@@ -3263,7 +3263,7 @@
         <v>0.2539874873401625</v>
       </c>
       <c r="I88">
-        <v>-2.697956876574546</v>
+        <v>-1.631227848023713</v>
       </c>
     </row>
     <row r="89">
@@ -3281,10 +3281,10 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>-5.945901309796365</v>
+        <v>-4.698336107940325</v>
       </c>
       <c r="F89">
-        <v>-2.373841307847742</v>
+        <v>-1.484304176661342</v>
       </c>
       <c r="G89">
         <v>-0.8701413123275245</v>
@@ -3293,7 +3293,7 @@
         <v>-0.1579464394047646</v>
       </c>
       <c r="I89">
-        <v>-4.917813558064076</v>
+        <v>-3.670248356208035</v>
       </c>
     </row>
     <row r="90">
@@ -3311,10 +3311,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>-3.04955877129358</v>
+        <v>-2.286601610844267</v>
       </c>
       <c r="F90">
-        <v>-2.246589780438196</v>
+        <v>-1.280655647928439</v>
       </c>
       <c r="G90">
         <v>-0.171891681966369</v>
@@ -3323,7 +3323,7 @@
         <v>0.03567463761995401</v>
       </c>
       <c r="I90">
-        <v>-2.913341726947165</v>
+        <v>-2.150384566497852</v>
       </c>
     </row>
     <row r="91">
@@ -3341,10 +3341,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>-2.797046325324548</v>
+        <v>-2.339571895058551</v>
       </c>
       <c r="F91">
-        <v>-3.732237670556518</v>
+        <v>-2.848556215275973</v>
       </c>
       <c r="G91">
         <v>-0.698126548703344</v>
@@ -3353,7 +3353,7 @@
         <v>0.09128131941663525</v>
       </c>
       <c r="I91">
-        <v>-2.190201096037839</v>
+        <v>-1.732726665771843</v>
       </c>
     </row>
     <row r="92">
@@ -3371,10 +3371,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>-2.488045852844002</v>
+        <v>-2.13930466170003</v>
       </c>
       <c r="F92">
-        <v>-3.570138064814623</v>
+        <v>-2.865953568885793</v>
       </c>
       <c r="G92">
         <v>-0.05654885996651509</v>
@@ -3383,7 +3383,7 @@
         <v>-0.01234886731195053</v>
       </c>
       <c r="I92">
-        <v>-2.419148125565536</v>
+        <v>-2.070406934421564</v>
       </c>
     </row>
     <row r="93">
@@ -3401,10 +3401,10 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>-1.086662637358434</v>
+        <v>-0.7357084438719351</v>
       </c>
       <c r="F93">
-        <v>-2.35532839670514</v>
+        <v>-1.875296652868696</v>
       </c>
       <c r="G93">
         <v>-0.03349544600468914</v>
@@ -3413,7 +3413,7 @@
         <v>-0.07347584724045174</v>
       </c>
       <c r="I93">
-        <v>-0.9796913441132926</v>
+        <v>-0.6287371506267943</v>
       </c>
     </row>
   </sheetData>

--- a/results/12-2020/fim_interactive.xlsx
+++ b/results/12-2020/fim_interactive.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -370,37 +370,37 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>impact</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>recession</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>federal</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>state_local</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>consumption</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>projection</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>impact</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>federal</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>state_local</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>consumption</t>
         </is>
       </c>
     </row>
@@ -416,25 +416,25 @@
         </is>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-0.4472294074885931</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>-0.04873127066753441</v>
+        <v>-0.04873127066753641</v>
       </c>
       <c r="F2">
-        <v>-0.4472294074885929</v>
+        <v>0.2318136940835876</v>
       </c>
       <c r="G2">
-        <v>0.2318136940835876</v>
+        <v>0.1384476835461522</v>
       </c>
       <c r="H2">
-        <v>0.1384476835461522</v>
+        <v>-0.4189926482972762</v>
       </c>
       <c r="I2">
-        <v>-0.4189926482972742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -449,25 +449,25 @@
         </is>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>-0.7456669684567124</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>-1.88755655971204</v>
+        <v>-1.887556559712041</v>
       </c>
       <c r="F3">
-        <v>-0.7456669684567119</v>
+        <v>-1.31159166141865</v>
       </c>
       <c r="G3">
-        <v>-1.31159166141865</v>
+        <v>0.03883989562439163</v>
       </c>
       <c r="H3">
-        <v>0.03883989562439163</v>
+        <v>-0.6148047939177831</v>
       </c>
       <c r="I3">
-        <v>-0.6148047939177821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>-0.61032319325026</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -491,16 +491,16 @@
         <v>-0.3090944267481067</v>
       </c>
       <c r="F4">
-        <v>-0.6103231932502594</v>
+        <v>0.4707108944060808</v>
       </c>
       <c r="G4">
-        <v>0.4707108944060808</v>
+        <v>-0.5107329829851925</v>
       </c>
       <c r="H4">
-        <v>-0.5107329829851925</v>
+        <v>-0.2690723381689949</v>
       </c>
       <c r="I4">
-        <v>-0.2690723381689949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -515,25 +515,25 @@
         </is>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-0.8382344239894917</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.107555438830284</v>
+        <v>-1.107555438830285</v>
       </c>
       <c r="F5">
-        <v>-0.8382344239894907</v>
+        <v>-0.7542304097927617</v>
       </c>
       <c r="G5">
-        <v>-0.7542304097927617</v>
+        <v>-0.2606953291135496</v>
       </c>
       <c r="H5">
-        <v>-0.2606953291135496</v>
+        <v>-0.09262969992397337</v>
       </c>
       <c r="I5">
-        <v>-0.09262969992397241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -548,25 +548,25 @@
         </is>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.8806992552352376</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>-0.2185905956505214</v>
+        <v>-0.2185905956505204</v>
       </c>
       <c r="F6">
-        <v>-0.8806992552352374</v>
+        <v>0.03794677656077419</v>
       </c>
       <c r="G6">
-        <v>0.03794677656077419</v>
+        <v>-0.2790588276696364</v>
       </c>
       <c r="H6">
-        <v>-0.2790588276696364</v>
+        <v>0.0225214554583418</v>
       </c>
       <c r="I6">
-        <v>0.02252145545834081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -581,25 +581,25 @@
         </is>
       </c>
       <c r="C7">
+        <v>-0.2360511149435778</v>
+      </c>
+      <c r="D7">
         <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
       </c>
       <c r="E7">
         <v>0.6910360014545981</v>
       </c>
       <c r="F7">
-        <v>-0.2360511149435778</v>
+        <v>0.4176699769362638</v>
       </c>
       <c r="G7">
-        <v>0.4176699769362638</v>
+        <v>0.03463379122030326</v>
       </c>
       <c r="H7">
-        <v>0.03463379122030326</v>
+        <v>0.238732233298031</v>
       </c>
       <c r="I7">
-        <v>0.238732233298031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -614,25 +614,25 @@
         </is>
       </c>
       <c r="C8">
+        <v>0.0980688281177672</v>
+      </c>
+      <c r="D8">
         <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
       </c>
       <c r="E8">
         <v>1.027385345497273</v>
       </c>
       <c r="F8">
-        <v>0.0980688281177672</v>
+        <v>0.3854233068740954</v>
       </c>
       <c r="G8">
-        <v>0.3854233068740954</v>
+        <v>0.2634165840868962</v>
       </c>
       <c r="H8">
-        <v>0.2634165840868962</v>
+        <v>0.3785454545362815</v>
       </c>
       <c r="I8">
-        <v>0.3785454545362815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -647,25 +647,25 @@
         </is>
       </c>
       <c r="C9">
+        <v>0.5752134274079779</v>
+      </c>
+      <c r="D9">
         <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
       </c>
       <c r="E9">
         <v>0.801022958330558</v>
       </c>
       <c r="F9">
-        <v>0.5752134274079777</v>
+        <v>-0.3246051547334287</v>
       </c>
       <c r="G9">
-        <v>-0.3246051547334287</v>
+        <v>-0.3447600652268802</v>
       </c>
       <c r="H9">
-        <v>-0.3447600652268802</v>
+        <v>1.470388178290867</v>
       </c>
       <c r="I9">
-        <v>1.470388178290867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -680,25 +680,25 @@
         </is>
       </c>
       <c r="C10">
+        <v>1.109989812003528</v>
+      </c>
+      <c r="D10">
         <v>1</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
       <c r="E10">
-        <v>1.92051494273168</v>
+        <v>1.920514942731678</v>
       </c>
       <c r="F10">
-        <v>1.109989812003528</v>
+        <v>0.1230989010896827</v>
       </c>
       <c r="G10">
-        <v>0.1230989010896827</v>
+        <v>0.5335658662608733</v>
       </c>
       <c r="H10">
-        <v>0.5335658662608733</v>
+        <v>1.263850175381122</v>
       </c>
       <c r="I10">
-        <v>1.263850175381124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -713,25 +713,25 @@
         </is>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1.508614763283712</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.285535806575335</v>
+        <v>2.285535806575336</v>
       </c>
       <c r="F11">
-        <v>1.508614763283712</v>
+        <v>1.052245127335171</v>
       </c>
       <c r="G11">
-        <v>1.052245127335171</v>
+        <v>-0.2965791441100969</v>
       </c>
       <c r="H11">
-        <v>-0.2965791441100969</v>
+        <v>1.529869823350263</v>
       </c>
       <c r="I11">
-        <v>1.529869823350261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1.734679676165521</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -755,16 +755,16 @@
         <v>1.931644997024508</v>
       </c>
       <c r="F12">
-        <v>1.734679676165521</v>
+        <v>0.3185676646894323</v>
       </c>
       <c r="G12">
-        <v>0.3185676646894323</v>
+        <v>-0.2595992058963156</v>
       </c>
       <c r="H12">
-        <v>-0.2595992058963156</v>
+        <v>1.872676538231392</v>
       </c>
       <c r="I12">
-        <v>1.872676538231392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -779,25 +779,25 @@
         </is>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1.895358740638592</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.443739216222842</v>
+        <v>1.443739216222841</v>
       </c>
       <c r="F13">
-        <v>1.895358740638592</v>
+        <v>-0.08532620047935681</v>
       </c>
       <c r="G13">
-        <v>-0.08532620047935681</v>
+        <v>-0.02386484856737564</v>
       </c>
       <c r="H13">
-        <v>-0.02386484856737564</v>
+        <v>1.552930265269573</v>
       </c>
       <c r="I13">
-        <v>1.552930265269574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -812,25 +812,25 @@
         </is>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1.712158073606745</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.187712274604291</v>
+        <v>1.187712274604292</v>
       </c>
       <c r="F14">
-        <v>1.712158073606745</v>
+        <v>0.3456853209154376</v>
       </c>
       <c r="G14">
-        <v>0.3456853209154376</v>
+        <v>-0.2574736546801012</v>
       </c>
       <c r="H14">
-        <v>-0.2574736546801012</v>
+        <v>1.099500608368955</v>
       </c>
       <c r="I14">
-        <v>1.099500608368954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1.319105706424823</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -854,16 +854,16 @@
         <v>0.7133263378476467</v>
       </c>
       <c r="F15">
-        <v>1.319105706424823</v>
+        <v>0.0406776650144408</v>
       </c>
       <c r="G15">
-        <v>0.0406776650144408</v>
+        <v>-0.4619483423637046</v>
       </c>
       <c r="H15">
-        <v>-0.4619483423637046</v>
+        <v>1.13459701519691</v>
       </c>
       <c r="I15">
-        <v>1.13459701519691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -878,25 +878,25 @@
         </is>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1.182519333953415</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.385299507138876</v>
+        <v>1.385299507138875</v>
       </c>
       <c r="F16">
-        <v>1.182519333953415</v>
+        <v>1.665594538201976</v>
       </c>
       <c r="G16">
-        <v>1.665594538201976</v>
+        <v>-1.43490081457891</v>
       </c>
       <c r="H16">
-        <v>-1.43490081457891</v>
+        <v>1.154605783515809</v>
       </c>
       <c r="I16">
-        <v>1.154605783515809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -911,25 +911,25 @@
         </is>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.9687047098360627</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5884807197534302</v>
+        <v>0.5884807197534322</v>
       </c>
       <c r="F17">
-        <v>0.9687047098360617</v>
+        <v>-0.7323423591140148</v>
       </c>
       <c r="G17">
-        <v>-0.7323423591140148</v>
+        <v>0.3998565275949437</v>
       </c>
       <c r="H17">
-        <v>0.3998565275949437</v>
+        <v>0.9209665512725033</v>
       </c>
       <c r="I17">
-        <v>0.9209665512725013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -944,7 +944,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.8338634252474004</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0.6483471362496426</v>
       </c>
       <c r="F18">
-        <v>0.8338634252473998</v>
+        <v>0.5092651698143085</v>
       </c>
       <c r="G18">
-        <v>0.5092651698143085</v>
+        <v>-0.546989131172936</v>
       </c>
       <c r="H18">
-        <v>-0.546989131172936</v>
+        <v>0.6860710976082701</v>
       </c>
       <c r="I18">
-        <v>0.6860710976082701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -977,7 +977,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.6747978935539624</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -986,16 +986,16 @@
         <v>0.07706421107389419</v>
       </c>
       <c r="F19">
-        <v>0.6747978935539617</v>
+        <v>-0.4041200882597878</v>
       </c>
       <c r="G19">
-        <v>-0.4041200882597878</v>
+        <v>0.2335694975294421</v>
       </c>
       <c r="H19">
-        <v>0.2335694975294421</v>
+        <v>0.24761480180424</v>
       </c>
       <c r="I19">
-        <v>0.24761480180424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1010,7 +1010,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.298536993957446</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1019,16 +1019,16 @@
         <v>-0.1197440912471906</v>
       </c>
       <c r="F20">
-        <v>0.2985369939574451</v>
+        <v>-0.2813714609987538</v>
       </c>
       <c r="G20">
-        <v>-0.2813714609987538</v>
+        <v>-0.03567393639946731</v>
       </c>
       <c r="H20">
-        <v>-0.03567393639946731</v>
+        <v>0.1973013061510305</v>
       </c>
       <c r="I20">
-        <v>0.1973013061510305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1043,25 +1043,25 @@
         </is>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.03504399652784967</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>-0.4654912699649514</v>
+        <v>-0.465491269964953</v>
       </c>
       <c r="F21">
-        <v>0.0350439965278497</v>
+        <v>0.3398770253391276</v>
       </c>
       <c r="G21">
-        <v>0.3398770253391276</v>
+        <v>-0.7314416061911453</v>
       </c>
       <c r="H21">
-        <v>-0.7314416061911453</v>
+        <v>-0.07392668911293539</v>
       </c>
       <c r="I21">
-        <v>-0.07392668911293369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1076,25 +1076,25 @@
         </is>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.293725787875408</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>-0.6667320013633891</v>
+        <v>-0.6667320013633883</v>
       </c>
       <c r="F22">
-        <v>-0.2937257878754082</v>
+        <v>-0.3550314415416719</v>
       </c>
       <c r="G22">
-        <v>-0.3550314415416719</v>
+        <v>-0.2307444377000993</v>
       </c>
       <c r="H22">
-        <v>-0.2307444377000993</v>
+        <v>-0.08095612212161717</v>
       </c>
       <c r="I22">
-        <v>-0.080956122121618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1109,7 +1109,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.4720114912703186</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1118,16 +1118,16 @@
         <v>-0.6360786025057481</v>
       </c>
       <c r="F23">
-        <v>-0.4720114912703188</v>
+        <v>0.02168388493087975</v>
       </c>
       <c r="G23">
-        <v>0.02168388493087975</v>
+        <v>-0.1581741428903265</v>
       </c>
       <c r="H23">
-        <v>-0.1581741428903265</v>
+        <v>-0.4995883445463014</v>
       </c>
       <c r="I23">
-        <v>-0.4995883445463014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1142,25 +1142,25 @@
         </is>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>-0.7068344034904511</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>-1.059035740127722</v>
+        <v>-1.059035740127721</v>
       </c>
       <c r="F24">
-        <v>-0.7068344034904516</v>
+        <v>-0.2701579859382386</v>
       </c>
       <c r="G24">
-        <v>-0.2701579859382386</v>
+        <v>-0.2764818884085525</v>
       </c>
       <c r="H24">
-        <v>-0.2764818884085525</v>
+        <v>-0.5123958657809297</v>
       </c>
       <c r="I24">
-        <v>-0.5123958657809304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1175,25 +1175,25 @@
         </is>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>-0.7812946812129854</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>-0.7633323808550926</v>
+        <v>-0.7633323808550903</v>
       </c>
       <c r="F25">
-        <v>-0.7812946812129868</v>
+        <v>-0.1071728628412014</v>
       </c>
       <c r="G25">
-        <v>-0.1071728628412014</v>
+        <v>-0.1249180002665537</v>
       </c>
       <c r="H25">
-        <v>-0.1249180002665537</v>
+        <v>-0.5312415177473352</v>
       </c>
       <c r="I25">
-        <v>-0.5312415177473375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1208,25 +1208,25 @@
         </is>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>-0.8317358555310252</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>-0.868496698635547</v>
+        <v>-0.8684966986355478</v>
       </c>
       <c r="F26">
-        <v>-0.8317358555310264</v>
+        <v>-0.2767950136222138</v>
       </c>
       <c r="G26">
-        <v>-0.2767950136222138</v>
+        <v>-0.1302645945694583</v>
       </c>
       <c r="H26">
-        <v>-0.1302645945694583</v>
+        <v>-0.4614370904438757</v>
       </c>
       <c r="I26">
-        <v>-0.4614370904438749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1241,7 +1241,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>-0.6949765841702376</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>-0.08904151706259766</v>
       </c>
       <c r="F27">
-        <v>-0.6949765841702387</v>
+        <v>0.6877869103813896</v>
       </c>
       <c r="G27">
-        <v>0.6877869103813896</v>
+        <v>-0.1683661652429188</v>
       </c>
       <c r="H27">
-        <v>-0.1683661652429188</v>
+        <v>-0.6084622622010686</v>
       </c>
       <c r="I27">
-        <v>-0.6084622622010686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1274,7 @@
         </is>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>-0.7105747315515571</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1283,16 +1283,16 @@
         <v>-1.121428329652999</v>
       </c>
       <c r="F28">
-        <v>-0.710574731551558</v>
+        <v>-0.4905032062218124</v>
       </c>
       <c r="G28">
-        <v>-0.4905032062218124</v>
+        <v>0.03320395040116637</v>
       </c>
       <c r="H28">
-        <v>0.03320395040116637</v>
+        <v>-0.6641290738323532</v>
       </c>
       <c r="I28">
-        <v>-0.6641290738323532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1307,25 +1307,25 @@
         </is>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>-0.7203215409195458</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>-0.8023196183270442</v>
+        <v>-0.8023196183270449</v>
       </c>
       <c r="F29">
-        <v>-0.720321540919546</v>
+        <v>-0.6627889888787315</v>
       </c>
       <c r="G29">
-        <v>-0.6627889888787315</v>
+        <v>0.1395514339167008</v>
       </c>
       <c r="H29">
-        <v>0.1395514339167008</v>
+        <v>-0.2790820633650142</v>
       </c>
       <c r="I29">
-        <v>-0.2790820633650136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1340,25 +1340,25 @@
         </is>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>-0.5146106893039293</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>-0.04565329217308461</v>
+        <v>-0.04565329217308167</v>
       </c>
       <c r="F30">
-        <v>-0.5146106893039304</v>
+        <v>0.0405326156052338</v>
       </c>
       <c r="G30">
-        <v>0.0405326156052338</v>
+        <v>0.202729765204821</v>
       </c>
       <c r="H30">
-        <v>0.202729765204821</v>
+        <v>-0.2889156729831365</v>
       </c>
       <c r="I30">
-        <v>-0.2889156729831394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1373,25 +1373,25 @@
         </is>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>-0.6408611199915279</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>-0.5940432398129916</v>
+        <v>-0.5940432398129922</v>
       </c>
       <c r="F31">
-        <v>-0.6408611199915289</v>
+        <v>-0.4482138378535143</v>
       </c>
       <c r="G31">
-        <v>-0.4482138378535143</v>
+        <v>0.1914173671366676</v>
       </c>
       <c r="H31">
-        <v>0.1914173671366676</v>
+        <v>-0.3372467690961455</v>
       </c>
       <c r="I31">
-        <v>-0.3372467690961448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>-0.3481518270618675</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1415,16 +1415,16 @@
         <v>0.04940884206564261</v>
       </c>
       <c r="F32">
-        <v>-0.3481518270618685</v>
+        <v>0.6845768143843559</v>
       </c>
       <c r="G32">
-        <v>0.6845768143843559</v>
+        <v>-0.3565550164851028</v>
       </c>
       <c r="H32">
-        <v>-0.3565550164851028</v>
+        <v>-0.2786129558336105</v>
       </c>
       <c r="I32">
-        <v>-0.2786129558336105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1439,7 +1439,7 @@
         </is>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>-0.1645403332462944</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1448,16 +1448,16 @@
         <v>-0.06787364306475245</v>
       </c>
       <c r="F33">
-        <v>-0.1645403332462955</v>
+        <v>-0.08640542978502515</v>
       </c>
       <c r="G33">
-        <v>-0.08640542978502515</v>
+        <v>0.06632580721215653</v>
       </c>
       <c r="H33">
-        <v>0.06632580721215653</v>
+        <v>-0.04779402049188383</v>
       </c>
       <c r="I33">
-        <v>-0.04779402049188383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1472,25 +1472,25 @@
         </is>
       </c>
       <c r="C34">
+        <v>-0.07987529385605092</v>
+      </c>
+      <c r="D34">
         <v>1</v>
       </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
       <c r="E34">
-        <v>0.2930068653878942</v>
+        <v>0.2930068653878921</v>
       </c>
       <c r="F34">
-        <v>-0.07987529385605083</v>
+        <v>0.134181683212793</v>
       </c>
       <c r="G34">
-        <v>0.134181683212793</v>
+        <v>0.1080155521227334</v>
       </c>
       <c r="H34">
-        <v>0.1080155521227334</v>
+        <v>0.05080963005236562</v>
       </c>
       <c r="I34">
-        <v>0.05080963005236774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1505,25 +1505,25 @@
         </is>
       </c>
       <c r="C35">
+        <v>0.05488427698913204</v>
+      </c>
+      <c r="D35">
         <v>1</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
       </c>
       <c r="E35">
         <v>-0.05500495643226036</v>
       </c>
       <c r="F35">
-        <v>0.05488427698913198</v>
+        <v>0.3175547462742406</v>
       </c>
       <c r="G35">
-        <v>0.3175547462742406</v>
+        <v>-0.5011733566315455</v>
       </c>
       <c r="H35">
-        <v>-0.5011733566315455</v>
+        <v>0.1286136539250445</v>
       </c>
       <c r="I35">
-        <v>0.1286136539250445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1538,25 +1538,25 @@
         </is>
       </c>
       <c r="C36">
+        <v>0.6936208789454045</v>
+      </c>
+      <c r="D36">
         <v>1</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
       </c>
       <c r="E36">
         <v>2.604355249890733</v>
       </c>
       <c r="F36">
-        <v>0.6936208789454045</v>
+        <v>0.5310600703908137</v>
       </c>
       <c r="G36">
-        <v>0.5310600703908137</v>
+        <v>-0.1974623965262828</v>
       </c>
       <c r="H36">
-        <v>-0.1974623965262828</v>
+        <v>2.270757576026202</v>
       </c>
       <c r="I36">
-        <v>2.270757576026202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1571,25 +1571,25 @@
         </is>
       </c>
       <c r="C37">
+        <v>1.063957882687771</v>
+      </c>
+      <c r="D37">
         <v>1</v>
       </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
       <c r="E37">
-        <v>1.413474371904715</v>
+        <v>1.413474371904713</v>
       </c>
       <c r="F37">
-        <v>1.063957882687771</v>
+        <v>-0.002758138597635018</v>
       </c>
       <c r="G37">
-        <v>-0.002758138597635018</v>
+        <v>0.3093434144177715</v>
       </c>
       <c r="H37">
-        <v>0.3093434144177715</v>
+        <v>1.106889096084576</v>
       </c>
       <c r="I37">
-        <v>1.106889096084578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="C38">
+        <v>1.398890445053031</v>
+      </c>
+      <c r="D38">
         <v>1</v>
       </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
       <c r="E38">
-        <v>1.632737114848934</v>
+        <v>1.632737114848932</v>
       </c>
       <c r="F38">
-        <v>1.398890445053031</v>
+        <v>0.5136971469729917</v>
       </c>
       <c r="G38">
-        <v>0.5136971469729917</v>
+        <v>-0.2960053567725832</v>
       </c>
       <c r="H38">
-        <v>-0.2960053567725832</v>
+        <v>1.415045324648523</v>
       </c>
       <c r="I38">
-        <v>1.415045324648525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1637,25 +1637,25 @@
         </is>
       </c>
       <c r="C39">
+        <v>2.295677988267009</v>
+      </c>
+      <c r="D39">
         <v>1</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
       </c>
       <c r="E39">
         <v>3.532145216423655</v>
       </c>
       <c r="F39">
-        <v>2.29567798826701</v>
+        <v>0.1830775014705948</v>
       </c>
       <c r="G39">
-        <v>0.1830775014705948</v>
+        <v>0.4338389778553179</v>
       </c>
       <c r="H39">
-        <v>0.4338389778553179</v>
+        <v>2.915228737097742</v>
       </c>
       <c r="I39">
-        <v>2.915228737097742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1670,25 +1670,25 @@
         </is>
       </c>
       <c r="C40">
+        <v>2.360576900522221</v>
+      </c>
+      <c r="D40">
         <v>1</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
       </c>
       <c r="E40">
         <v>2.86395089891158</v>
       </c>
       <c r="F40">
-        <v>2.360576900522222</v>
+        <v>1.644181498240886</v>
       </c>
       <c r="G40">
-        <v>1.644181498240886</v>
+        <v>-0.7074856204578588</v>
       </c>
       <c r="H40">
-        <v>-0.7074856204578588</v>
+        <v>1.927255021128552</v>
       </c>
       <c r="I40">
-        <v>1.927255021128552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1703,7 +1703,7 @@
         </is>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>2.692089184251138</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1712,16 +1712,16 @@
         <v>2.73952350682038</v>
       </c>
       <c r="F41">
-        <v>2.692089184251138</v>
+        <v>0.4214418425158024</v>
       </c>
       <c r="G41">
-        <v>0.4214418425158024</v>
+        <v>-0.44606518048123</v>
       </c>
       <c r="H41">
-        <v>-0.44606518048123</v>
+        <v>2.764146844785808</v>
       </c>
       <c r="I41">
-        <v>2.764146844785808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>2.847825103372086</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1745,16 +1745,16 @@
         <v>2.255680791332724</v>
       </c>
       <c r="F42">
-        <v>2.847825103372085</v>
+        <v>0.6290059163210516</v>
       </c>
       <c r="G42">
-        <v>0.6290059163210516</v>
+        <v>-0.7144042446540373</v>
       </c>
       <c r="H42">
-        <v>-0.7144042446540373</v>
+        <v>2.341079119665709</v>
       </c>
       <c r="I42">
-        <v>2.341079119665709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1769,7 +1769,7 @@
         </is>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>2.338485565438233</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1778,16 +1778,16 @@
         <v>1.494787064688244</v>
       </c>
       <c r="F43">
-        <v>2.338485565438233</v>
+        <v>0.4901069572014474</v>
       </c>
       <c r="G43">
-        <v>0.4901069572014474</v>
+        <v>-1.063597864520708</v>
       </c>
       <c r="H43">
-        <v>-1.063597864520708</v>
+        <v>2.068277972007504</v>
       </c>
       <c r="I43">
-        <v>2.068277972007504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1802,25 +1802,25 @@
         </is>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1.921758466403445</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>1.197042502772424</v>
+        <v>1.197042502772425</v>
       </c>
       <c r="F44">
-        <v>1.921758466403444</v>
+        <v>0.4203095613777605</v>
       </c>
       <c r="G44">
-        <v>0.4203095613777605</v>
+        <v>-0.37639879104271</v>
       </c>
       <c r="H44">
-        <v>-0.37639879104271</v>
+        <v>1.153131732437374</v>
       </c>
       <c r="I44">
-        <v>1.153131732437373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1835,25 +1835,25 @@
         </is>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>1.284726011986624</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0.1913936891530983</v>
+        <v>0.1913936891530996</v>
       </c>
       <c r="F45">
-        <v>1.284726011986623</v>
+        <v>0.08455124436341505</v>
       </c>
       <c r="G45">
-        <v>0.08455124436341505</v>
+        <v>-0.9266923783968273</v>
       </c>
       <c r="H45">
-        <v>-0.9266923783968273</v>
+        <v>1.033534823186512</v>
       </c>
       <c r="I45">
-        <v>1.03353482318651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1868,25 +1868,25 @@
         </is>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>0.7778180934166881</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0.2280491170529774</v>
+        <v>0.2280491170529787</v>
       </c>
       <c r="F46">
-        <v>0.7778180934166865</v>
+        <v>-0.7063634794243945</v>
       </c>
       <c r="G46">
-        <v>-0.7063634794243945</v>
+        <v>-0.08829624979960171</v>
       </c>
       <c r="H46">
-        <v>-0.08829624979960171</v>
+        <v>1.022708846276975</v>
       </c>
       <c r="I46">
-        <v>1.022708846276974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1901,7 +1901,7 @@
         </is>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>0.04523267965381217</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1910,16 +1910,16 @@
         <v>-1.43555459036326</v>
       </c>
       <c r="F47">
-        <v>0.04523267965381061</v>
+        <v>-0.7791842320308732</v>
       </c>
       <c r="G47">
-        <v>-0.7791842320308732</v>
+        <v>-0.5207276274948131</v>
       </c>
       <c r="H47">
-        <v>-0.5207276274948131</v>
+        <v>-0.1356427308375739</v>
       </c>
       <c r="I47">
-        <v>-0.1356427308375739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1934,7 +1934,7 @@
         </is>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>-0.5832870900325149</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1943,16 +1943,16 @@
         <v>-1.317036575972883</v>
       </c>
       <c r="F48">
-        <v>-0.5832870900325162</v>
+        <v>-0.1791826590862452</v>
       </c>
       <c r="G48">
-        <v>-0.1791826590862452</v>
+        <v>-0.6686679888322142</v>
       </c>
       <c r="H48">
-        <v>-0.6686679888322142</v>
+        <v>-0.4691859280544238</v>
       </c>
       <c r="I48">
-        <v>-0.4691859280544238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1967,25 +1967,25 @@
         </is>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-1.172062742914461</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>-2.163708922374684</v>
+        <v>-2.163708922374685</v>
       </c>
       <c r="F49">
-        <v>-1.172062742914462</v>
+        <v>-1.410076980392139</v>
       </c>
       <c r="G49">
-        <v>-1.410076980392139</v>
+        <v>-0.05152418484441068</v>
       </c>
       <c r="H49">
-        <v>-0.05152418484441068</v>
+        <v>-0.7021077571381354</v>
       </c>
       <c r="I49">
-        <v>-0.702107757138134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>-1.50037448603506</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -2009,16 +2009,16 @@
         <v>-1.085197855429417</v>
       </c>
       <c r="F50">
-        <v>-1.500374486035061</v>
+        <v>-0.2105533183890024</v>
       </c>
       <c r="G50">
-        <v>-0.2105533183890024</v>
+        <v>-0.1404336047976929</v>
       </c>
       <c r="H50">
-        <v>-0.1404336047976929</v>
+        <v>-0.7342109322427215</v>
       </c>
       <c r="I50">
-        <v>-0.7342109322427215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2033,25 +2033,25 @@
         </is>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>-1.505784145912362</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>-1.457193229872469</v>
+        <v>-1.457193229872468</v>
       </c>
       <c r="F51">
-        <v>-1.505784145912363</v>
+        <v>-0.3909270564522251</v>
       </c>
       <c r="G51">
-        <v>-0.3909270564522251</v>
+        <v>-0.2560200781047454</v>
       </c>
       <c r="H51">
-        <v>-0.2560200781047454</v>
+        <v>-0.8102460953154972</v>
       </c>
       <c r="I51">
-        <v>-0.8102460953154985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-1.497415448468469</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -2075,16 +2075,16 @@
         <v>-1.283561786197312</v>
       </c>
       <c r="F52">
-        <v>-1.49741544846847</v>
+        <v>-0.6442132037942118</v>
       </c>
       <c r="G52">
-        <v>-0.6442132037942118</v>
+        <v>-0.06640099407624728</v>
       </c>
       <c r="H52">
-        <v>-0.06640099407624728</v>
+        <v>-0.5729475883268532</v>
       </c>
       <c r="I52">
-        <v>-0.5729475883268532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2099,7 +2099,7 @@
         </is>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>-1.170966062992835</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2108,16 +2108,16 @@
         <v>-0.8579113804721512</v>
       </c>
       <c r="F53">
-        <v>-1.170966062992837</v>
+        <v>-0.07052941796100387</v>
       </c>
       <c r="G53">
-        <v>-0.07052941796100387</v>
+        <v>-0.3554763575157842</v>
       </c>
       <c r="H53">
-        <v>-0.3554763575157842</v>
+        <v>-0.4319056049953631</v>
       </c>
       <c r="I53">
-        <v>-0.4319056049953631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>-1.291186928321239</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2141,16 +2141,16 @@
         <v>-1.56608131674303</v>
       </c>
       <c r="F54">
-        <v>-1.29118692832124</v>
+        <v>-0.8865916234440627</v>
       </c>
       <c r="G54">
-        <v>-0.8865916234440627</v>
+        <v>-0.1832364051070537</v>
       </c>
       <c r="H54">
-        <v>-0.1832364051070537</v>
+        <v>-0.4962532881919139</v>
       </c>
       <c r="I54">
-        <v>-0.4962532881919139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2165,25 +2165,25 @@
         </is>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>-1.372742972253627</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>-1.783417405602018</v>
+        <v>-1.783417405602021</v>
       </c>
       <c r="F55">
-        <v>-1.372742972253627</v>
+        <v>-1.047790882965999</v>
       </c>
       <c r="G55">
-        <v>-1.047790882965999</v>
+        <v>0.04953696020514492</v>
       </c>
       <c r="H55">
-        <v>0.04953696020514492</v>
+        <v>-0.7851634828411672</v>
       </c>
       <c r="I55">
-        <v>-0.7851634828411646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2198,25 +2198,25 @@
         </is>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>-1.37580903132073</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>-1.295826022465722</v>
+        <v>-1.295826022465723</v>
       </c>
       <c r="F56">
-        <v>-1.37580903132073</v>
+        <v>-0.3471829962638515</v>
       </c>
       <c r="G56">
-        <v>-0.3471829962638515</v>
+        <v>-0.0966042891959619</v>
       </c>
       <c r="H56">
-        <v>-0.0966042891959619</v>
+        <v>-0.8520387370059094</v>
       </c>
       <c r="I56">
-        <v>-0.8520387370059082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2231,25 +2231,25 @@
         </is>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>-1.449554130322923</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>-1.152891776480925</v>
+        <v>-1.152891776480923</v>
       </c>
       <c r="F57">
-        <v>-1.449554130322923</v>
+        <v>-0.6132388212289077</v>
       </c>
       <c r="G57">
-        <v>-0.6132388212289077</v>
+        <v>-0.1028635192602457</v>
       </c>
       <c r="H57">
-        <v>-0.1028635192602457</v>
+        <v>-0.4367894359917699</v>
       </c>
       <c r="I57">
-        <v>-0.4367894359917712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2264,7 +2264,7 @@
         </is>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>-1.404072369009824</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2273,16 +2273,16 @@
         <v>-1.384154271490635</v>
       </c>
       <c r="F58">
-        <v>-1.404072369009824</v>
+        <v>-0.9172888700772799</v>
       </c>
       <c r="G58">
-        <v>-0.9172888700772799</v>
+        <v>0.01540737794330799</v>
       </c>
       <c r="H58">
-        <v>0.01540737794330799</v>
+        <v>-0.4822727793566633</v>
       </c>
       <c r="I58">
-        <v>-0.4822727793566633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2297,25 +2297,25 @@
         </is>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>-1.282499950933603</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>-1.297127733297142</v>
+        <v>-1.29712773329714</v>
       </c>
       <c r="F59">
-        <v>-1.282499950933605</v>
+        <v>-0.2587432465973415</v>
       </c>
       <c r="G59">
-        <v>-0.2587432465973415</v>
+        <v>-0.3629080917018036</v>
       </c>
       <c r="H59">
-        <v>-0.3629080917018036</v>
+        <v>-0.6754763949979944</v>
       </c>
       <c r="I59">
-        <v>-0.6754763949979967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2330,7 +2330,7 @@
         </is>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>-1.146105557306803</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2339,16 +2339,16 @@
         <v>-0.7502484479585195</v>
       </c>
       <c r="F60">
-        <v>-1.146105557306805</v>
+        <v>-0.09302646274323331</v>
       </c>
       <c r="G60">
-        <v>-0.09302646274323331</v>
+        <v>-0.1298910337959616</v>
       </c>
       <c r="H60">
-        <v>-0.1298910337959616</v>
+        <v>-0.5273309514193246</v>
       </c>
       <c r="I60">
-        <v>-0.5273309514193246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>-0.9009708437589379</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2372,16 +2372,16 @@
         <v>-0.1723529222894641</v>
       </c>
       <c r="F61">
-        <v>-0.9009708437589395</v>
+        <v>0.03469619020211948</v>
       </c>
       <c r="G61">
-        <v>0.03469619020211948</v>
+        <v>0.1381184495505191</v>
       </c>
       <c r="H61">
-        <v>0.1381184495505191</v>
+        <v>-0.3451675620421027</v>
       </c>
       <c r="I61">
-        <v>-0.3451675620421027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2396,25 +2396,25 @@
         </is>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.690307064695338</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>-0.5414991552362339</v>
+        <v>-0.5414991552362352</v>
       </c>
       <c r="F62">
-        <v>-0.6903070646953393</v>
+        <v>-0.8456653475137066</v>
       </c>
       <c r="G62">
-        <v>-0.8456653475137066</v>
+        <v>0.4977560396995079</v>
       </c>
       <c r="H62">
-        <v>0.4977560396995079</v>
+        <v>-0.1935898474220364</v>
       </c>
       <c r="I62">
-        <v>-0.1935898474220352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2429,7 +2429,7 @@
         </is>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>-0.3472221268371652</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2438,16 +2438,16 @@
         <v>0.07521201813555149</v>
       </c>
       <c r="F63">
-        <v>-0.347222126837166</v>
+        <v>0.0488266565076218</v>
       </c>
       <c r="G63">
-        <v>0.0488266565076218</v>
+        <v>0.00794499122983091</v>
       </c>
       <c r="H63">
-        <v>0.00794499122983091</v>
+        <v>0.01844037039809878</v>
       </c>
       <c r="I63">
-        <v>0.01844037039809878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2462,25 +2462,25 @@
         </is>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>-0.08798741100362692</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0.286690415375635</v>
+        <v>0.2866904153756338</v>
       </c>
       <c r="F64">
-        <v>-0.08798741100362742</v>
+        <v>-0.07135988355089964</v>
       </c>
       <c r="G64">
-        <v>-0.07135988355089964</v>
+        <v>0.3696321006761685</v>
       </c>
       <c r="H64">
-        <v>0.3696321006761685</v>
+        <v>-0.01158180174963501</v>
       </c>
       <c r="I64">
-        <v>-0.01158180174963387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2495,7 +2495,7 @@
         </is>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.0362421565397785</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2504,16 +2504,16 @@
         <v>0.03462809556592961</v>
       </c>
       <c r="F65">
-        <v>-0.036242156539779</v>
+        <v>-0.04123200610439566</v>
       </c>
       <c r="G65">
-        <v>-0.04123200610439566</v>
+        <v>0.05673608506707493</v>
       </c>
       <c r="H65">
-        <v>0.05673608506707493</v>
+        <v>0.01912401660325034</v>
       </c>
       <c r="I65">
-        <v>0.01912401660325034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2528,25 +2528,25 @@
         </is>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>0.07383734118973304</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>-0.1011811643181902</v>
+        <v>-0.101181164318189</v>
       </c>
       <c r="F66">
-        <v>0.07383734118973195</v>
+        <v>0.1305714754136182</v>
       </c>
       <c r="G66">
-        <v>0.1305714754136182</v>
+        <v>-0.1739916507745391</v>
       </c>
       <c r="H66">
-        <v>-0.1739916507745391</v>
+        <v>-0.05776098895726807</v>
       </c>
       <c r="I66">
-        <v>-0.05776098895726919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2561,25 +2561,25 @@
         </is>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>0.134510809650927</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>0.3179058919803286</v>
+        <v>0.3179058919803275</v>
       </c>
       <c r="F67">
-        <v>0.1345108096509262</v>
+        <v>-0.0095204543947928</v>
       </c>
       <c r="G67">
-        <v>-0.0095204543947928</v>
+        <v>0.3618699123118419</v>
       </c>
       <c r="H67">
-        <v>0.3618699123118419</v>
+        <v>-0.03444356593672161</v>
       </c>
       <c r="I67">
-        <v>-0.0344435659367205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2594,7 +2594,7 @@
         </is>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>-0.055789260658752</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>-0.4745098658630824</v>
       </c>
       <c r="F68">
-        <v>-0.0557892606587531</v>
+        <v>-0.2028730263807215</v>
       </c>
       <c r="G68">
-        <v>-0.2028730263807215</v>
+        <v>-0.1980140598340873</v>
       </c>
       <c r="H68">
-        <v>-0.1980140598340873</v>
+        <v>-0.0736227796482735</v>
       </c>
       <c r="I68">
-        <v>-0.0736227796482735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2627,25 +2627,25 @@
         </is>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>-0.08758363897545574</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>-0.09254941770088418</v>
+        <v>-0.09254941770088529</v>
       </c>
       <c r="F69">
-        <v>-0.08758363897545654</v>
+        <v>-0.0594327661714883</v>
       </c>
       <c r="G69">
-        <v>-0.0594327661714883</v>
+        <v>0.1054090751596382</v>
       </c>
       <c r="H69">
-        <v>0.1054090751596382</v>
+        <v>-0.1385257266890352</v>
       </c>
       <c r="I69">
-        <v>-0.1385257266890341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2660,25 +2660,25 @@
         </is>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>-0.1121258028506509</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>-0.1993498198189684</v>
+        <v>-0.1993498198189695</v>
       </c>
       <c r="F70">
-        <v>-0.1121258028506511</v>
+        <v>-0.1469082386613492</v>
       </c>
       <c r="G70">
-        <v>-0.1469082386613492</v>
+        <v>0.05240041216595906</v>
       </c>
       <c r="H70">
-        <v>0.05240041216595906</v>
+        <v>-0.1048419933235793</v>
       </c>
       <c r="I70">
-        <v>-0.1048419933235782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2693,7 +2693,7 @@
         </is>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>-0.2442426983605631</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -2702,16 +2702,16 @@
         <v>-0.2105616900593215</v>
       </c>
       <c r="F71">
-        <v>-0.2442426983605636</v>
+        <v>-0.2842812308453224</v>
       </c>
       <c r="G71">
-        <v>-0.2842812308453224</v>
+        <v>0.01102558298453079</v>
       </c>
       <c r="H71">
-        <v>0.01102558298453079</v>
+        <v>0.0626939578014702</v>
       </c>
       <c r="I71">
-        <v>0.0626939578014702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2726,25 +2726,25 @@
         </is>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>-0.1067486726530703</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0.07546623696688659</v>
+        <v>0.07546623696688871</v>
       </c>
       <c r="F72">
-        <v>-0.1067486726530714</v>
+        <v>0.1101517719974749</v>
       </c>
       <c r="G72">
-        <v>0.1101517719974749</v>
+        <v>-0.1229138139409729</v>
       </c>
       <c r="H72">
-        <v>-0.1229138139409729</v>
+        <v>0.08822827891038665</v>
       </c>
       <c r="I72">
-        <v>0.08822827891038452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2759,25 +2759,25 @@
         </is>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>-0.1408247266725448</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>-0.2288536337787813</v>
+        <v>-0.2288536337787834</v>
       </c>
       <c r="F73">
-        <v>-0.1408247266725457</v>
+        <v>-0.3642509696606954</v>
       </c>
       <c r="G73">
-        <v>-0.3642509696606954</v>
+        <v>0.1086193414943325</v>
       </c>
       <c r="H73">
-        <v>0.1086193414943325</v>
+        <v>0.0267779943875795</v>
       </c>
       <c r="I73">
-        <v>0.02677799438758162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>-0.08112184783705709</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -2801,16 +2801,16 @@
         <v>0.03946169552298145</v>
       </c>
       <c r="F74">
-        <v>-0.0811218478370582</v>
+        <v>0.2237569875946429</v>
       </c>
       <c r="G74">
-        <v>0.2237569875946429</v>
+        <v>-0.02712450934502616</v>
       </c>
       <c r="H74">
-        <v>-0.02712450934502616</v>
+        <v>-0.1571707827266353</v>
       </c>
       <c r="I74">
-        <v>-0.1571707827266353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2825,25 +2825,25 @@
         </is>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>-0.0238762625218272</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>0.01842065120159704</v>
+        <v>0.01842065120159805</v>
       </c>
       <c r="F75">
-        <v>-0.02387626252182858</v>
+        <v>-0.01311419685234618</v>
       </c>
       <c r="G75">
-        <v>-0.01311419685234618</v>
+        <v>-0.03836760891619392</v>
       </c>
       <c r="H75">
-        <v>-0.03836760891619392</v>
+        <v>0.06990245697013815</v>
       </c>
       <c r="I75">
-        <v>0.06990245697013714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2858,25 +2858,25 @@
         </is>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>0.06409033606477599</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0.4273326313133025</v>
+        <v>0.4273326313133015</v>
       </c>
       <c r="F76">
-        <v>0.06409033606477539</v>
+        <v>0.007741184328022455</v>
       </c>
       <c r="G76">
-        <v>0.007741184328022455</v>
+        <v>0.1820306418640798</v>
       </c>
       <c r="H76">
-        <v>0.1820306418640798</v>
+        <v>0.2375608051211992</v>
       </c>
       <c r="I76">
-        <v>0.2375608051212002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -2891,25 +2891,25 @@
         </is>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>0.162628328928369</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0.1652983376755857</v>
+        <v>0.1652983376755887</v>
       </c>
       <c r="F77">
-        <v>0.1626283289283671</v>
+        <v>0.1832164717785813</v>
       </c>
       <c r="G77">
-        <v>0.1832164717785813</v>
+        <v>-0.0655278868595966</v>
       </c>
       <c r="H77">
-        <v>-0.0655278868595966</v>
+        <v>0.04760975275660394</v>
       </c>
       <c r="I77">
-        <v>0.04760975275660094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2924,25 +2924,25 @@
         </is>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>0.04574228611787742</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>-0.4280824757189858</v>
+        <v>-0.4280824757189849</v>
       </c>
       <c r="F78">
-        <v>0.04574228611787533</v>
+        <v>-0.0319629231639949</v>
       </c>
       <c r="G78">
-        <v>-0.0319629231639949</v>
+        <v>-0.4472970132207758</v>
       </c>
       <c r="H78">
-        <v>-0.4472970132207758</v>
+        <v>0.05117746066578584</v>
       </c>
       <c r="I78">
-        <v>0.05117746066578486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -2957,25 +2957,25 @@
         </is>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.09398893107815967</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>0.211407231042728</v>
+        <v>0.211407231042727</v>
       </c>
       <c r="F79">
-        <v>0.09398893107815808</v>
+        <v>-0.1261415442716636</v>
       </c>
       <c r="G79">
-        <v>-0.1261415442716636</v>
+        <v>0.234931818107759</v>
       </c>
       <c r="H79">
-        <v>0.234931818107759</v>
+        <v>0.1026169572066317</v>
       </c>
       <c r="I79">
-        <v>0.1026169572066326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2990,25 +2990,25 @@
         </is>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>0.1406467787558497</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>0.6139640220240625</v>
+        <v>0.6139640220240616</v>
       </c>
       <c r="F80">
-        <v>0.1406467787558481</v>
+        <v>0.43627845986265</v>
       </c>
       <c r="G80">
-        <v>0.43627845986265</v>
+        <v>0.1023935315640581</v>
       </c>
       <c r="H80">
-        <v>0.1023935315640581</v>
+        <v>0.07529203059735352</v>
       </c>
       <c r="I80">
-        <v>0.07529203059735448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3023,25 +3023,25 @@
         </is>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>0.1993522223174726</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>0.4001201119220791</v>
+        <v>0.4001201119220801</v>
       </c>
       <c r="F81">
-        <v>0.1993522223174715</v>
+        <v>0.1698509031992773</v>
       </c>
       <c r="G81">
-        <v>0.1698509031992773</v>
+        <v>-0.117298132789972</v>
       </c>
       <c r="H81">
-        <v>-0.117298132789972</v>
+        <v>0.3475673415127749</v>
       </c>
       <c r="I81">
-        <v>0.3475673415127739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3056,25 +3056,25 @@
         </is>
       </c>
       <c r="C82">
+        <v>0.4267748648149282</v>
+      </c>
+      <c r="D82">
         <v>1</v>
       </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
       <c r="E82">
-        <v>0.4816080942708365</v>
+        <v>0.4816080942708375</v>
       </c>
       <c r="F82">
-        <v>0.426774864814927</v>
+        <v>0.3437108920115783</v>
       </c>
       <c r="G82">
-        <v>0.3437108920115783</v>
+        <v>-0.2466962259924505</v>
       </c>
       <c r="H82">
-        <v>-0.2466962259924505</v>
+        <v>0.3845934282517096</v>
       </c>
       <c r="I82">
-        <v>0.3845934282517087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3089,25 +3089,25 @@
         </is>
       </c>
       <c r="C83">
+        <v>0.3951899724688844</v>
+      </c>
+      <c r="D83">
         <v>1</v>
       </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
       <c r="E83">
-        <v>0.08506766165855074</v>
+        <v>0.08506766165855166</v>
       </c>
       <c r="F83">
-        <v>0.3951899724688828</v>
+        <v>-0.02351814460598127</v>
       </c>
       <c r="G83">
-        <v>-0.02351814460598127</v>
+        <v>-0.07249663819006502</v>
       </c>
       <c r="H83">
-        <v>-0.07249663819006502</v>
+        <v>0.181082444454598</v>
       </c>
       <c r="I83">
-        <v>0.181082444454597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -3122,25 +3122,25 @@
         </is>
       </c>
       <c r="C84">
+        <v>3.814143363154272</v>
+      </c>
+      <c r="D84">
         <v>1</v>
       </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
       <c r="E84">
-        <v>14.28977758476562</v>
+        <v>14.28977758476561</v>
       </c>
       <c r="F84">
-        <v>3.814143363154271</v>
+        <v>2.31906979058428</v>
       </c>
       <c r="G84">
-        <v>2.31906979058428</v>
+        <v>-2.205623585545855</v>
       </c>
       <c r="H84">
-        <v>-2.205623585545855</v>
+        <v>14.17633137972719</v>
       </c>
       <c r="I84">
-        <v>14.17633137972719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -3155,25 +3155,25 @@
         </is>
       </c>
       <c r="C85">
+        <v>4.615923064585027</v>
+      </c>
+      <c r="D85">
         <v>1</v>
       </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
       <c r="E85">
-        <v>3.607238917645105</v>
+        <v>3.607238917645103</v>
       </c>
       <c r="F85">
-        <v>4.615923064585028</v>
+        <v>-0.4945785725116473</v>
       </c>
       <c r="G85">
-        <v>-0.4945785725116473</v>
+        <v>-0.7431116546444677</v>
       </c>
       <c r="H85">
-        <v>-0.7431116546444677</v>
+        <v>4.844929144801218</v>
       </c>
       <c r="I85">
-        <v>4.84492914480122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3187,23 +3187,26 @@
           <t>Q4</t>
         </is>
       </c>
+      <c r="C86">
+        <v>3.734109630946365</v>
+      </c>
       <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>-3.045645640283808</v>
+      </c>
+      <c r="F86">
+        <v>0.2005940950032006</v>
+      </c>
+      <c r="G86">
+        <v>-0.3673114002360622</v>
+      </c>
+      <c r="H86">
+        <v>-2.878928335050946</v>
+      </c>
+      <c r="I86">
         <v>1</v>
-      </c>
-      <c r="E86">
-        <v>-3.101195725775879</v>
-      </c>
-      <c r="F86">
-        <v>3.720222109573349</v>
-      </c>
-      <c r="G86">
-        <v>0.1996211702668564</v>
-      </c>
-      <c r="H86">
-        <v>-0.3663384754997181</v>
-      </c>
-      <c r="I86">
-        <v>-2.934478420543018</v>
       </c>
     </row>
     <row r="87">
@@ -3217,23 +3220,26 @@
           <t>Q1</t>
         </is>
       </c>
+      <c r="C87">
+        <v>5.468111291003594</v>
+      </c>
       <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>7.021074301887467</v>
+      </c>
+      <c r="F87">
+        <v>1.982552178870741</v>
+      </c>
+      <c r="G87">
+        <v>0.1641566356977335</v>
+      </c>
+      <c r="H87">
+        <v>4.874365487318992</v>
+      </c>
+      <c r="I87">
         <v>1</v>
-      </c>
-      <c r="E87">
-        <v>3.932030374331585</v>
-      </c>
-      <c r="F87">
-        <v>4.681962787741607</v>
-      </c>
-      <c r="G87">
-        <v>1.982554623266236</v>
-      </c>
-      <c r="H87">
-        <v>0.1641541913022385</v>
-      </c>
-      <c r="I87">
-        <v>1.785321559763111</v>
       </c>
     </row>
     <row r="88">
@@ -3247,23 +3253,26 @@
           <t>Q2</t>
         </is>
       </c>
+      <c r="C88">
+        <v>0.9764391459609327</v>
+      </c>
       <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>-3.676910995405035</v>
+      </c>
+      <c r="F88">
+        <v>-0.6924794352765421</v>
+      </c>
+      <c r="G88">
+        <v>0.2539920360395043</v>
+      </c>
+      <c r="H88">
+        <v>-3.238423596167997</v>
+      </c>
+      <c r="I88">
         <v>1</v>
-      </c>
-      <c r="E88">
-        <v>-2.069715247260751</v>
-      </c>
-      <c r="F88">
-        <v>0.5920895797350152</v>
-      </c>
-      <c r="G88">
-        <v>-0.6924748865772002</v>
-      </c>
-      <c r="H88">
-        <v>0.2539874873401625</v>
-      </c>
-      <c r="I88">
-        <v>-1.631227848023713</v>
       </c>
     </row>
     <row r="89">
@@ -3277,23 +3286,26 @@
           <t>Q3</t>
         </is>
       </c>
+      <c r="C89">
+        <v>-1.200434040420372</v>
+      </c>
       <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>-5.100253827880115</v>
+      </c>
+      <c r="F89">
+        <v>-0.870145153811781</v>
+      </c>
+      <c r="G89">
+        <v>-0.157942597920508</v>
+      </c>
+      <c r="H89">
+        <v>-4.072166076147826</v>
+      </c>
+      <c r="I89">
         <v>1</v>
-      </c>
-      <c r="E89">
-        <v>-4.698336107940325</v>
-      </c>
-      <c r="F89">
-        <v>-1.484304176661342</v>
-      </c>
-      <c r="G89">
-        <v>-0.8701413123275245</v>
-      </c>
-      <c r="H89">
-        <v>-0.1579464394047646</v>
-      </c>
-      <c r="I89">
-        <v>-3.670248356208035</v>
       </c>
     </row>
     <row r="90">
@@ -3307,23 +3319,26 @@
           <t>Q4</t>
         </is>
       </c>
+      <c r="C90">
+        <v>-0.9703517243541402</v>
+      </c>
       <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>-2.125316376018882</v>
+      </c>
+      <c r="F90">
+        <v>-0.171893517168879</v>
+      </c>
+      <c r="G90">
+        <v>0.03567647282246397</v>
+      </c>
+      <c r="H90">
+        <v>-1.989099331672467</v>
+      </c>
+      <c r="I90">
         <v>1</v>
-      </c>
-      <c r="E90">
-        <v>-2.286601610844267</v>
-      </c>
-      <c r="F90">
-        <v>-1.280655647928439</v>
-      </c>
-      <c r="G90">
-        <v>-0.171891681966369</v>
-      </c>
-      <c r="H90">
-        <v>0.03567463761995401</v>
-      </c>
-      <c r="I90">
-        <v>-2.150384566497852</v>
       </c>
     </row>
     <row r="91">
@@ -3337,23 +3352,26 @@
           <t>Q1</t>
         </is>
       </c>
+      <c r="C91">
+        <v>-3.283115980530936</v>
+      </c>
       <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>-2.229982722819719</v>
+      </c>
+      <c r="F91">
+        <v>-0.6981285203870229</v>
+      </c>
+      <c r="G91">
+        <v>0.09128329110031413</v>
+      </c>
+      <c r="H91">
+        <v>-1.62313749353301</v>
+      </c>
+      <c r="I91">
         <v>1</v>
-      </c>
-      <c r="E91">
-        <v>-2.339571895058551</v>
-      </c>
-      <c r="F91">
-        <v>-2.848556215275973</v>
-      </c>
-      <c r="G91">
-        <v>-0.698126548703344</v>
-      </c>
-      <c r="H91">
-        <v>0.09128131941663525</v>
-      </c>
-      <c r="I91">
-        <v>-1.732726665771843</v>
       </c>
     </row>
     <row r="92">
@@ -3367,23 +3385,26 @@
           <t>Q2</t>
         </is>
       </c>
+      <c r="C92">
+        <v>-2.886625941890521</v>
+      </c>
       <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>-2.090950840843372</v>
+      </c>
+      <c r="F92">
+        <v>-0.0565513016082707</v>
+      </c>
+      <c r="G92">
+        <v>-0.01234642567019492</v>
+      </c>
+      <c r="H92">
+        <v>-2.022053113564906</v>
+      </c>
+      <c r="I92">
         <v>1</v>
-      </c>
-      <c r="E92">
-        <v>-2.13930466170003</v>
-      </c>
-      <c r="F92">
-        <v>-2.865953568885793</v>
-      </c>
-      <c r="G92">
-        <v>-0.05654885996651509</v>
-      </c>
-      <c r="H92">
-        <v>-0.01234886731195053</v>
-      </c>
-      <c r="I92">
-        <v>-2.070406934421564</v>
       </c>
     </row>
     <row r="93">
@@ -3397,23 +3418,59 @@
           <t>Q3</t>
         </is>
       </c>
+      <c r="C93">
+        <v>-1.795258544062671</v>
+      </c>
       <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>-0.7347842365687172</v>
+      </c>
+      <c r="F93">
+        <v>-0.03349732029465677</v>
+      </c>
+      <c r="G93">
+        <v>-0.07347397295048411</v>
+      </c>
+      <c r="H93">
+        <v>-0.6278129433235763</v>
+      </c>
+      <c r="I93">
         <v>1</v>
       </c>
-      <c r="E93">
-        <v>-0.7357084438719351</v>
-      </c>
-      <c r="F93">
-        <v>-1.875296652868696</v>
-      </c>
-      <c r="G93">
-        <v>-0.03349544600468914</v>
-      </c>
-      <c r="H93">
-        <v>-0.07347584724045174</v>
-      </c>
-      <c r="I93">
-        <v>-0.6287371506267943</v>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="C94">
+        <v>-1.309552503271213</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>-0.1824922128530471</v>
+      </c>
+      <c r="F94">
+        <v>-0.0662501113593158</v>
+      </c>
+      <c r="G94">
+        <v>-0.1261756957067537</v>
+      </c>
+      <c r="H94">
+        <v>0.009933594213022369</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/results/12-2020/fim_interactive.xlsx
+++ b/results/12-2020/fim_interactive.xlsx
@@ -3221,13 +3221,13 @@
         </is>
       </c>
       <c r="C87">
-        <v>5.468111291003594</v>
+        <v>5.547110201355259</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>7.021074301887467</v>
+        <v>7.337069943294125</v>
       </c>
       <c r="F87">
         <v>1.982552178870741</v>
@@ -3236,7 +3236,7 @@
         <v>0.1641566356977335</v>
       </c>
       <c r="H87">
-        <v>4.874365487318992</v>
+        <v>5.190361128725651</v>
       </c>
       <c r="I87">
         <v>1</v>
@@ -3254,13 +3254,13 @@
         </is>
       </c>
       <c r="C88">
-        <v>0.9764391459609327</v>
+        <v>1.113172851774511</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88">
-        <v>-3.676910995405035</v>
+        <v>-3.445971813557383</v>
       </c>
       <c r="F88">
         <v>-0.6924794352765421</v>
@@ -3269,7 +3269,7 @@
         <v>0.2539920360395043</v>
       </c>
       <c r="H88">
-        <v>-3.238423596167997</v>
+        <v>-3.007484414320345</v>
       </c>
       <c r="I88">
         <v>1</v>
@@ -3287,13 +3287,13 @@
         </is>
       </c>
       <c r="C89">
-        <v>-1.200434040420372</v>
+        <v>-1.243179934994805</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>-5.100253827880115</v>
+        <v>-5.818172229432157</v>
       </c>
       <c r="F89">
         <v>-0.870145153811781</v>
@@ -3302,7 +3302,7 @@
         <v>-0.157942597920508</v>
       </c>
       <c r="H89">
-        <v>-4.072166076147826</v>
+        <v>-4.790084477699868</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -3320,13 +3320,13 @@
         </is>
       </c>
       <c r="C90">
-        <v>-0.9703517243541402</v>
+        <v>-0.9876646317202245</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>-2.125316376018882</v>
+        <v>-2.023584427185488</v>
       </c>
       <c r="F90">
         <v>-0.171893517168879</v>
@@ -3335,7 +3335,7 @@
         <v>0.03567647282246397</v>
       </c>
       <c r="H90">
-        <v>-1.989099331672467</v>
+        <v>-1.887367382839073</v>
       </c>
       <c r="I90">
         <v>1</v>
@@ -3353,13 +3353,13 @@
         </is>
       </c>
       <c r="C91">
-        <v>-3.283115980530936</v>
+        <v>-3.379268200984162</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>-2.229982722819719</v>
+        <v>-2.229344333761625</v>
       </c>
       <c r="F91">
         <v>-0.6981285203870229</v>
@@ -3368,7 +3368,7 @@
         <v>0.09128329110031413</v>
       </c>
       <c r="H91">
-        <v>-1.62313749353301</v>
+        <v>-1.622499104474916</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -3386,13 +3386,13 @@
         </is>
       </c>
       <c r="C92">
-        <v>-2.886625941890521</v>
+        <v>-3.034217630275573</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
-        <v>-2.090950840843372</v>
+        <v>-2.065769530723027</v>
       </c>
       <c r="F92">
         <v>-0.0565513016082707</v>
@@ -3401,7 +3401,7 @@
         <v>-0.01234642567019492</v>
       </c>
       <c r="H92">
-        <v>-2.022053113564906</v>
+        <v>-1.996871803444562</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -3419,13 +3419,13 @@
         </is>
       </c>
       <c r="C93">
-        <v>-1.795258544062671</v>
+        <v>-1.751101248774911</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93">
-        <v>-0.7347842365687172</v>
+        <v>-0.6857067034295107</v>
       </c>
       <c r="F93">
         <v>-0.03349732029465677</v>
@@ -3434,7 +3434,7 @@
         <v>-0.07347397295048411</v>
       </c>
       <c r="H93">
-        <v>-0.6278129433235763</v>
+        <v>-0.5787354101843698</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -3452,13 +3452,13 @@
         </is>
       </c>
       <c r="C94">
-        <v>-1.309552503271213</v>
+        <v>-1.290812433035287</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>-0.1824922128530471</v>
+        <v>-0.182429164226992</v>
       </c>
       <c r="F94">
         <v>-0.0662501113593158</v>
@@ -3467,7 +3467,7 @@
         <v>-0.1261756957067537</v>
       </c>
       <c r="H94">
-        <v>0.009933594213022369</v>
+        <v>0.009996642839077443</v>
       </c>
       <c r="I94">
         <v>1</v>

--- a/results/12-2020/fim_interactive.xlsx
+++ b/results/12-2020/fim_interactive.xlsx
@@ -3188,13 +3188,13 @@
         </is>
       </c>
       <c r="C86">
-        <v>3.734109630946365</v>
+        <v>3.738774692380103</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>-3.045645640283808</v>
+        <v>-3.026985394548855</v>
       </c>
       <c r="F86">
         <v>0.2005940950032006</v>
@@ -3203,7 +3203,7 @@
         <v>-0.3673114002360622</v>
       </c>
       <c r="H86">
-        <v>-2.878928335050946</v>
+        <v>-2.860268089315993</v>
       </c>
       <c r="I86">
         <v>1</v>
@@ -3221,13 +3221,13 @@
         </is>
       </c>
       <c r="C87">
-        <v>5.547110201355259</v>
+        <v>5.55998151019559</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>7.337069943294125</v>
+        <v>7.3698949329205</v>
       </c>
       <c r="F87">
         <v>1.982552178870741</v>
@@ -3236,7 +3236,7 @@
         <v>0.1641566356977335</v>
       </c>
       <c r="H87">
-        <v>5.190361128725651</v>
+        <v>5.223186118352026</v>
       </c>
       <c r="I87">
         <v>1</v>
@@ -3254,13 +3254,13 @@
         </is>
       </c>
       <c r="C88">
-        <v>1.113172851774511</v>
+        <v>1.137011959877302</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88">
-        <v>-3.445971813557383</v>
+        <v>-3.402100616507544</v>
       </c>
       <c r="F88">
         <v>-0.6924794352765421</v>
@@ -3269,7 +3269,7 @@
         <v>0.2539920360395043</v>
       </c>
       <c r="H88">
-        <v>-3.007484414320345</v>
+        <v>-2.963613217270506</v>
       </c>
       <c r="I88">
         <v>1</v>
@@ -3287,13 +3287,13 @@
         </is>
       </c>
       <c r="C89">
-        <v>-1.243179934994805</v>
+        <v>-1.206409713280085</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>-5.818172229432157</v>
+        <v>-5.766447774984444</v>
       </c>
       <c r="F89">
         <v>-0.870145153811781</v>
@@ -3302,7 +3302,7 @@
         <v>-0.157942597920508</v>
       </c>
       <c r="H89">
-        <v>-4.790084477699868</v>
+        <v>-4.738360023252155</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -3320,13 +3320,13 @@
         </is>
       </c>
       <c r="C90">
-        <v>-0.9876646317202245</v>
+        <v>-0.9480192944861663</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>-2.023584427185488</v>
+        <v>-1.993423719373181</v>
       </c>
       <c r="F90">
         <v>-0.171893517168879</v>
@@ -3335,7 +3335,7 @@
         <v>0.03567647282246397</v>
       </c>
       <c r="H90">
-        <v>-1.887367382839073</v>
+        <v>-1.857206675026766</v>
       </c>
       <c r="I90">
         <v>1</v>
@@ -3353,13 +3353,13 @@
         </is>
       </c>
       <c r="C91">
-        <v>-3.379268200984162</v>
+        <v>-3.344155676585455</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>-2.229344333761625</v>
+        <v>-2.214650595476656</v>
       </c>
       <c r="F91">
         <v>-0.6981285203870229</v>
@@ -3368,7 +3368,7 @@
         <v>0.09128329110031413</v>
       </c>
       <c r="H91">
-        <v>-1.622499104474916</v>
+        <v>-1.607805366189948</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -3386,13 +3386,13 @@
         </is>
       </c>
       <c r="C92">
-        <v>-3.034217630275573</v>
+        <v>-3.009298306419569</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
-        <v>-2.065769530723027</v>
+        <v>-2.062671135843999</v>
       </c>
       <c r="F92">
         <v>-0.0565513016082707</v>
@@ -3401,7 +3401,7 @@
         <v>-0.01234642567019492</v>
       </c>
       <c r="H92">
-        <v>-1.996871803444562</v>
+        <v>-1.993773408565533</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -3419,13 +3419,13 @@
         </is>
       </c>
       <c r="C93">
-        <v>-1.751101248774911</v>
+        <v>-1.740247042006141</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93">
-        <v>-0.6857067034295107</v>
+        <v>-0.6902427173307312</v>
       </c>
       <c r="F93">
         <v>-0.03349732029465677</v>
@@ -3434,7 +3434,7 @@
         <v>-0.07347397295048411</v>
       </c>
       <c r="H93">
-        <v>-0.5787354101843698</v>
+        <v>-0.5832714240855903</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -3452,13 +3452,13 @@
         </is>
       </c>
       <c r="C94">
-        <v>-1.290812433035287</v>
+        <v>-1.287716044876893</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>-0.182429164226992</v>
+        <v>-0.1832997308561881</v>
       </c>
       <c r="F94">
         <v>-0.0662501113593158</v>
@@ -3467,7 +3467,7 @@
         <v>-0.1261756957067537</v>
       </c>
       <c r="H94">
-        <v>0.009996642839077443</v>
+        <v>0.009126076209881323</v>
       </c>
       <c r="I94">
         <v>1</v>
